--- a/StructureDefinition-C4BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9623" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9622" uniqueCount="1028">
   <si>
     <t>Path</t>
   </si>
@@ -1045,10 +1045,7 @@
     <t>Some insurers need a declaration of the type of relationship.</t>
   </si>
   <si>
-    <t>Relationship of this claim to a related Claim.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/related-claim-relationship</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBRelatedClaimRelationshipCodes</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.related.reference</t>
@@ -1137,7 +1134,7 @@
     <t>Need to know who should receive payment with the most common situations being the Provider (assignment of benefits) or the Subscriber.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/payeetype</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBPayeeType</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.payee.party</t>
@@ -3345,7 +3342,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="71.13671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.328125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -8439,13 +8436,11 @@
         <v>43</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X46" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X46" s="2"/>
+      <c r="Y46" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>43</v>
@@ -8490,9 +8485,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -8500,13 +8495,13 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>43</v>
@@ -8518,16 +8513,16 @@
         <v>159</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -8576,7 +8571,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -8605,7 +8600,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -8628,17 +8623,17 @@
         <v>43</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
@@ -8687,7 +8682,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -8716,7 +8711,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -8739,19 +8734,19 @@
         <v>43</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>43</v>
@@ -8800,7 +8795,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -8829,7 +8824,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8855,16 +8850,16 @@
         <v>310</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
@@ -8913,7 +8908,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -8942,7 +8937,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -9051,7 +9046,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -9162,7 +9157,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -9275,7 +9270,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -9301,14 +9296,14 @@
         <v>178</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>43</v>
@@ -9337,7 +9332,7 @@
       </c>
       <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>43</v>
@@ -9355,7 +9350,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -9384,7 +9379,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -9407,19 +9402,19 @@
         <v>43</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>43</v>
@@ -9468,7 +9463,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -9497,7 +9492,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -9520,19 +9515,19 @@
         <v>43</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -9581,7 +9576,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -9599,7 +9594,7 @@
         <v>43</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>43</v>
@@ -9610,7 +9605,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9633,17 +9628,17 @@
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -9692,7 +9687,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -9707,10 +9702,10 @@
         <v>62</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>43</v>
@@ -9721,7 +9716,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9747,14 +9742,14 @@
         <v>323</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>384</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>43</v>
@@ -9803,7 +9798,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -9821,7 +9816,7 @@
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>43</v>
@@ -9832,7 +9827,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9855,17 +9850,17 @@
         <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
@@ -9914,7 +9909,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -9943,7 +9938,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9969,16 +9964,16 @@
         <v>126</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
@@ -10006,11 +10001,11 @@
         <v>172</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>43</v>
       </c>
@@ -10027,7 +10022,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>50</v>
@@ -10056,7 +10051,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -10082,14 +10077,14 @@
         <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
@@ -10138,7 +10133,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -10167,7 +10162,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -10193,16 +10188,16 @@
         <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>43</v>
@@ -10251,7 +10246,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -10280,7 +10275,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -10306,16 +10301,16 @@
         <v>205</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="M63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
@@ -10364,7 +10359,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -10393,7 +10388,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -10419,14 +10414,14 @@
         <v>310</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>43</v>
@@ -10475,7 +10470,7 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -10504,7 +10499,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -10613,7 +10608,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10724,7 +10719,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10837,7 +10832,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10860,17 +10855,17 @@
         <v>43</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>43</v>
@@ -10919,7 +10914,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>50</v>
@@ -10948,7 +10943,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10974,14 +10969,14 @@
         <v>284</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -11030,7 +11025,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>50</v>
@@ -11048,7 +11043,7 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>43</v>
@@ -11059,7 +11054,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -11082,19 +11077,19 @@
         <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>43</v>
@@ -11143,7 +11138,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -11172,7 +11167,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -11198,16 +11193,16 @@
         <v>178</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>43</v>
@@ -11235,11 +11230,11 @@
         <v>116</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>440</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>43</v>
       </c>
@@ -11256,7 +11251,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -11285,7 +11280,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -11311,14 +11306,14 @@
         <v>178</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>43</v>
@@ -11346,11 +11341,11 @@
         <v>116</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>446</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
       </c>
@@ -11367,7 +11362,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -11396,7 +11391,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -11422,16 +11417,16 @@
         <v>310</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
@@ -11480,7 +11475,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -11509,7 +11504,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11618,7 +11613,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -11729,7 +11724,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11842,7 +11837,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11865,17 +11860,17 @@
         <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>43</v>
@@ -11924,7 +11919,7 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>50</v>
@@ -11953,7 +11948,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11979,16 +11974,16 @@
         <v>178</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
@@ -12016,11 +12011,11 @@
         <v>116</v>
       </c>
       <c r="X78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Y78" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="Y78" t="s" s="2">
-        <v>465</v>
-      </c>
       <c r="Z78" t="s" s="2">
         <v>43</v>
       </c>
@@ -12037,7 +12032,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>50</v>
@@ -12066,7 +12061,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12092,16 +12087,16 @@
         <v>178</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>239</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12129,11 +12124,11 @@
         <v>116</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>43</v>
       </c>
@@ -12150,7 +12145,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12179,7 +12174,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12202,13 +12197,13 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -12259,7 +12254,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -12288,7 +12283,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12311,19 +12306,19 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12372,7 +12367,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12401,7 +12396,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12427,16 +12422,16 @@
         <v>104</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12464,11 +12459,11 @@
         <v>116</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
       </c>
@@ -12485,7 +12480,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12514,7 +12509,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12540,14 +12535,14 @@
         <v>310</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -12596,7 +12591,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -12625,7 +12620,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12734,7 +12729,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12845,7 +12840,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12958,7 +12953,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12981,19 +12976,19 @@
         <v>43</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -13042,7 +13037,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>50</v>
@@ -13071,7 +13066,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13094,17 +13089,17 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -13132,11 +13127,11 @@
         <v>116</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Y88" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="Z88" t="s" s="2">
         <v>43</v>
       </c>
@@ -13153,7 +13148,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>50</v>
@@ -13182,7 +13177,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13208,16 +13203,16 @@
         <v>178</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -13245,11 +13240,11 @@
         <v>116</v>
       </c>
       <c r="X89" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="Y89" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="Y89" t="s" s="2">
-        <v>514</v>
-      </c>
       <c r="Z89" t="s" s="2">
         <v>43</v>
       </c>
@@ -13266,7 +13261,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -13295,7 +13290,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13321,14 +13316,14 @@
         <v>178</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -13356,11 +13351,11 @@
         <v>116</v>
       </c>
       <c r="X90" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Y90" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Y90" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="Z90" t="s" s="2">
         <v>43</v>
       </c>
@@ -13377,7 +13372,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13406,7 +13401,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13432,16 +13427,16 @@
         <v>178</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13469,11 +13464,11 @@
         <v>116</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>527</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>43</v>
       </c>
@@ -13490,7 +13485,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13519,7 +13514,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13545,14 +13540,14 @@
         <v>310</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13601,7 +13596,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -13630,7 +13625,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13739,7 +13734,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13850,7 +13845,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13963,7 +13958,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13986,17 +13981,17 @@
         <v>43</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>43</v>
@@ -14045,7 +14040,7 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>50</v>
@@ -14074,7 +14069,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14100,14 +14095,14 @@
         <v>178</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14135,11 +14130,11 @@
         <v>116</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>542</v>
-      </c>
       <c r="Z97" t="s" s="2">
         <v>43</v>
       </c>
@@ -14156,7 +14151,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -14185,7 +14180,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14211,14 +14206,14 @@
         <v>264</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>545</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>43</v>
@@ -14267,7 +14262,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -14296,7 +14291,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14319,17 +14314,17 @@
         <v>43</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>548</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>43</v>
@@ -14357,11 +14352,11 @@
         <v>116</v>
       </c>
       <c r="X99" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Y99" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="Y99" t="s" s="2">
-        <v>553</v>
-      </c>
       <c r="Z99" t="s" s="2">
         <v>43</v>
       </c>
@@ -14378,7 +14373,7 @@
         <v>43</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>50</v>
@@ -14407,7 +14402,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14430,17 +14425,17 @@
         <v>43</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>43</v>
@@ -14489,7 +14484,7 @@
         <v>43</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -14518,7 +14513,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14541,17 +14536,17 @@
         <v>43</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>43</v>
@@ -14600,7 +14595,7 @@
         <v>43</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -14629,7 +14624,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14655,16 +14650,16 @@
         <v>310</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>43</v>
@@ -14713,7 +14708,7 @@
         <v>43</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>50</v>
@@ -14725,16 +14720,16 @@
         <v>43</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL102" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>43</v>
@@ -14742,7 +14737,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14851,7 +14846,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14962,7 +14957,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15075,7 +15070,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15098,19 +15093,19 @@
         <v>51</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>577</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>43</v>
@@ -15159,7 +15154,7 @@
         <v>43</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>50</v>
@@ -15188,7 +15183,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15211,17 +15206,17 @@
         <v>51</v>
       </c>
       <c r="J107" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="K107" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="K107" t="s" s="2">
+      <c r="L107" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>43</v>
@@ -15270,7 +15265,7 @@
         <v>43</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>50</v>
@@ -15299,7 +15294,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15325,16 +15320,16 @@
         <v>52</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>43</v>
@@ -15383,7 +15378,7 @@
         <v>43</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
@@ -15412,7 +15407,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15438,14 +15433,14 @@
         <v>310</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>589</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>43</v>
@@ -15494,7 +15489,7 @@
         <v>43</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -15523,7 +15518,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15632,7 +15627,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15743,7 +15738,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15856,7 +15851,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15879,19 +15874,19 @@
         <v>43</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>43</v>
@@ -15940,7 +15935,7 @@
         <v>43</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -15969,7 +15964,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15995,14 +15990,14 @@
         <v>178</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>602</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>603</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>43</v>
@@ -16030,11 +16025,11 @@
         <v>108</v>
       </c>
       <c r="X114" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="Y114" t="s" s="2">
         <v>605</v>
       </c>
-      <c r="Y114" t="s" s="2">
-        <v>606</v>
-      </c>
       <c r="Z114" t="s" s="2">
         <v>43</v>
       </c>
@@ -16051,7 +16046,7 @@
         <v>43</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -16080,7 +16075,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16103,17 +16098,17 @@
         <v>43</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="K115" t="s" s="2">
+      <c r="L115" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>43</v>
@@ -16162,7 +16157,7 @@
         <v>43</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -16191,7 +16186,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16217,14 +16212,14 @@
         <v>310</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>43</v>
@@ -16273,7 +16268,7 @@
         <v>43</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -16302,7 +16297,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16411,7 +16406,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16522,7 +16517,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16635,7 +16630,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16658,17 +16653,17 @@
         <v>43</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>43</v>
@@ -16717,7 +16712,7 @@
         <v>43</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>50</v>
@@ -16746,7 +16741,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16769,17 +16764,17 @@
         <v>43</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>43</v>
@@ -16828,7 +16823,7 @@
         <v>43</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -16857,7 +16852,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16880,17 +16875,17 @@
         <v>43</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -16939,7 +16934,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -16968,7 +16963,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16991,17 +16986,17 @@
         <v>43</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>43</v>
@@ -17050,7 +17045,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -17079,7 +17074,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17102,17 +17097,17 @@
         <v>43</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>636</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>637</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>43</v>
@@ -17161,7 +17156,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -17190,7 +17185,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17216,14 +17211,14 @@
         <v>178</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -17251,11 +17246,11 @@
         <v>116</v>
       </c>
       <c r="X125" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="Y125" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="Y125" t="s" s="2">
-        <v>644</v>
-      </c>
       <c r="Z125" t="s" s="2">
         <v>43</v>
       </c>
@@ -17272,7 +17267,7 @@
         <v>43</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -17301,7 +17296,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17327,16 +17322,16 @@
         <v>178</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -17364,11 +17359,11 @@
         <v>116</v>
       </c>
       <c r="X126" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Y126" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="Y126" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="Z126" t="s" s="2">
         <v>43</v>
       </c>
@@ -17385,7 +17380,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -17414,11 +17409,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17440,16 +17435,16 @@
         <v>178</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>43</v>
@@ -17477,11 +17472,11 @@
         <v>116</v>
       </c>
       <c r="X127" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y127" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="Y127" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="Z127" t="s" s="2">
         <v>43</v>
       </c>
@@ -17498,7 +17493,7 @@
         <v>43</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>50</v>
@@ -17527,7 +17522,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17553,16 +17548,16 @@
         <v>178</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="M128" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>43</v>
@@ -17590,11 +17585,11 @@
         <v>116</v>
       </c>
       <c r="X128" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Y128" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y128" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="Z128" t="s" s="2">
         <v>43</v>
       </c>
@@ -17611,7 +17606,7 @@
         <v>43</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -17640,7 +17635,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17666,16 +17661,16 @@
         <v>178</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>43</v>
@@ -17703,11 +17698,11 @@
         <v>116</v>
       </c>
       <c r="X129" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="Y129" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="Y129" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="Z129" t="s" s="2">
         <v>43</v>
       </c>
@@ -17724,7 +17719,7 @@
         <v>43</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>41</v>
@@ -17753,7 +17748,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17776,17 +17771,17 @@
         <v>43</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>43</v>
@@ -17835,7 +17830,7 @@
         <v>43</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
@@ -17864,7 +17859,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17887,17 +17882,17 @@
         <v>43</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="K131" t="s" s="2">
+      <c r="L131" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>43</v>
@@ -17925,11 +17920,11 @@
         <v>116</v>
       </c>
       <c r="X131" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="Y131" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="Y131" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="Z131" t="s" s="2">
         <v>43</v>
       </c>
@@ -17946,7 +17941,7 @@
         <v>43</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
@@ -17964,7 +17959,7 @@
         <v>43</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>43</v>
@@ -17975,7 +17970,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17998,17 +17993,17 @@
         <v>43</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="K132" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="K132" t="s" s="2">
+      <c r="L132" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18057,7 +18052,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
@@ -18086,7 +18081,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18109,17 +18104,17 @@
         <v>43</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18168,7 +18163,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>41</v>
@@ -18197,7 +18192,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18220,19 +18215,19 @@
         <v>43</v>
       </c>
       <c r="J134" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K134" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K134" t="s" s="2">
+      <c r="L134" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18281,7 +18276,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -18310,7 +18305,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18333,19 +18328,19 @@
         <v>43</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18394,7 +18389,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18423,7 +18418,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18446,17 +18441,17 @@
         <v>43</v>
       </c>
       <c r="J136" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K136" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K136" t="s" s="2">
+      <c r="L136" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18505,7 +18500,7 @@
         <v>43</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -18534,7 +18529,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18560,16 +18555,16 @@
         <v>178</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>43</v>
@@ -18597,11 +18592,11 @@
         <v>116</v>
       </c>
       <c r="X137" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="Y137" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="Y137" t="s" s="2">
-        <v>713</v>
-      </c>
       <c r="Z137" t="s" s="2">
         <v>43</v>
       </c>
@@ -18618,7 +18613,7 @@
         <v>43</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
@@ -18647,7 +18642,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18673,14 +18668,14 @@
         <v>178</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>43</v>
@@ -18708,11 +18703,11 @@
         <v>116</v>
       </c>
       <c r="X138" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="Y138" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="Y138" t="s" s="2">
-        <v>718</v>
-      </c>
       <c r="Z138" t="s" s="2">
         <v>43</v>
       </c>
@@ -18729,7 +18724,7 @@
         <v>43</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>41</v>
@@ -18758,7 +18753,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18781,17 +18776,17 @@
         <v>43</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>719</v>
+      </c>
+      <c r="K139" t="s" s="2">
         <v>720</v>
       </c>
-      <c r="K139" t="s" s="2">
+      <c r="L139" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>43</v>
@@ -18840,7 +18835,7 @@
         <v>43</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>41</v>
@@ -18869,7 +18864,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18892,17 +18887,17 @@
         <v>43</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>725</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>726</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>43</v>
@@ -18951,7 +18946,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
@@ -18980,7 +18975,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19006,14 +19001,14 @@
         <v>310</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>728</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>729</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>730</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -19062,7 +19057,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -19091,7 +19086,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19200,7 +19195,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19311,7 +19306,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19424,7 +19419,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19450,16 +19445,16 @@
         <v>178</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>737</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>738</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>739</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>43</v>
@@ -19487,11 +19482,11 @@
         <v>116</v>
       </c>
       <c r="X145" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="Y145" t="s" s="2">
         <v>740</v>
       </c>
-      <c r="Y145" t="s" s="2">
-        <v>741</v>
-      </c>
       <c r="Z145" t="s" s="2">
         <v>43</v>
       </c>
@@ -19508,7 +19503,7 @@
         <v>43</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>50</v>
@@ -19537,7 +19532,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19563,16 +19558,16 @@
         <v>178</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>744</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>745</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>43</v>
@@ -19600,11 +19595,11 @@
         <v>116</v>
       </c>
       <c r="X146" t="s" s="2">
+        <v>746</v>
+      </c>
+      <c r="Y146" t="s" s="2">
         <v>747</v>
       </c>
-      <c r="Y146" t="s" s="2">
-        <v>748</v>
-      </c>
       <c r="Z146" t="s" s="2">
         <v>43</v>
       </c>
@@ -19621,7 +19616,7 @@
         <v>43</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -19650,7 +19645,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19673,19 +19668,19 @@
         <v>43</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>751</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
@@ -19734,7 +19729,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>41</v>
@@ -19763,7 +19758,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19786,19 +19781,19 @@
         <v>43</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>754</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>756</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>757</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>758</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>43</v>
@@ -19847,7 +19842,7 @@
         <v>43</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -19876,7 +19871,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19902,10 +19897,10 @@
         <v>310</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -19956,7 +19951,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -19985,7 +19980,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20094,7 +20089,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20205,7 +20200,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20318,7 +20313,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20341,17 +20336,17 @@
         <v>43</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20400,7 +20395,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>50</v>
@@ -20429,7 +20424,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20455,14 +20450,14 @@
         <v>178</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20490,11 +20485,11 @@
         <v>116</v>
       </c>
       <c r="X154" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="Y154" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="Y154" t="s" s="2">
-        <v>644</v>
-      </c>
       <c r="Z154" t="s" s="2">
         <v>43</v>
       </c>
@@ -20511,7 +20506,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -20540,7 +20535,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20566,16 +20561,16 @@
         <v>178</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L155" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="M155" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>43</v>
@@ -20603,11 +20598,11 @@
         <v>116</v>
       </c>
       <c r="X155" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Y155" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="Y155" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="Z155" t="s" s="2">
         <v>43</v>
       </c>
@@ -20624,7 +20619,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -20653,11 +20648,11 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20679,16 +20674,16 @@
         <v>178</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L156" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="M156" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -20716,11 +20711,11 @@
         <v>116</v>
       </c>
       <c r="X156" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y156" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="Y156" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="Z156" t="s" s="2">
         <v>43</v>
       </c>
@@ -20737,7 +20732,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>50</v>
@@ -20766,7 +20761,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20792,16 +20787,16 @@
         <v>178</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>43</v>
@@ -20829,11 +20824,11 @@
         <v>116</v>
       </c>
       <c r="X157" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Y157" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y157" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="Z157" t="s" s="2">
         <v>43</v>
       </c>
@@ -20850,7 +20845,7 @@
         <v>43</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -20879,7 +20874,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20905,16 +20900,16 @@
         <v>178</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>43</v>
@@ -20942,11 +20937,11 @@
         <v>116</v>
       </c>
       <c r="X158" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="Y158" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="Y158" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="Z158" t="s" s="2">
         <v>43</v>
       </c>
@@ -20963,7 +20958,7 @@
         <v>43</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
@@ -20992,7 +20987,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21015,17 +21010,17 @@
         <v>43</v>
       </c>
       <c r="J159" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="K159" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="K159" t="s" s="2">
+      <c r="L159" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>43</v>
@@ -21074,7 +21069,7 @@
         <v>43</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>41</v>
@@ -21103,7 +21098,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21126,17 +21121,17 @@
         <v>43</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="K160" t="s" s="2">
+      <c r="L160" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>43</v>
@@ -21185,7 +21180,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
@@ -21214,7 +21209,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21237,19 +21232,19 @@
         <v>43</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21298,7 +21293,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
@@ -21327,7 +21322,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21350,19 +21345,19 @@
         <v>43</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>43</v>
@@ -21411,7 +21406,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
@@ -21440,7 +21435,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21463,17 +21458,17 @@
         <v>43</v>
       </c>
       <c r="J163" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K163" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K163" t="s" s="2">
+      <c r="L163" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21522,7 +21517,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -21551,7 +21546,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21574,17 +21569,17 @@
         <v>43</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>43</v>
@@ -21633,7 +21628,7 @@
         <v>43</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>41</v>
@@ -21662,7 +21657,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21688,10 +21683,10 @@
         <v>43</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>782</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>783</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -21742,7 +21737,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -21771,7 +21766,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21797,10 +21792,10 @@
         <v>310</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -21851,7 +21846,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -21880,7 +21875,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21989,7 +21984,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22100,7 +22095,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22213,7 +22208,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22236,17 +22231,17 @@
         <v>43</v>
       </c>
       <c r="J170" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22295,7 +22290,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>50</v>
@@ -22324,7 +22319,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22350,14 +22345,14 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>641</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22385,11 +22380,11 @@
         <v>116</v>
       </c>
       <c r="X171" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="Y171" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="Y171" t="s" s="2">
-        <v>644</v>
-      </c>
       <c r="Z171" t="s" s="2">
         <v>43</v>
       </c>
@@ -22406,7 +22401,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22435,7 +22430,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22461,16 +22456,16 @@
         <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="M172" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>648</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>649</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22498,11 +22493,11 @@
         <v>116</v>
       </c>
       <c r="X172" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Y172" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="Y172" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
       </c>
@@ -22519,7 +22514,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22548,11 +22543,11 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22574,16 +22569,16 @@
         <v>178</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22611,11 +22606,11 @@
         <v>116</v>
       </c>
       <c r="X173" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y173" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="Y173" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="Z173" t="s" s="2">
         <v>43</v>
       </c>
@@ -22632,7 +22627,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>50</v>
@@ -22661,7 +22656,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22687,16 +22682,16 @@
         <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22724,11 +22719,11 @@
         <v>116</v>
       </c>
       <c r="X174" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Y174" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y174" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="Z174" t="s" s="2">
         <v>43</v>
       </c>
@@ -22745,7 +22740,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22774,7 +22769,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22800,16 +22795,16 @@
         <v>178</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L175" t="s" s="2">
+      <c r="M175" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -22837,11 +22832,11 @@
         <v>116</v>
       </c>
       <c r="X175" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="Y175" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="Y175" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="Z175" t="s" s="2">
         <v>43</v>
       </c>
@@ -22858,7 +22853,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22887,7 +22882,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22910,17 +22905,17 @@
         <v>43</v>
       </c>
       <c r="J176" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="K176" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="K176" t="s" s="2">
+      <c r="L176" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -22969,7 +22964,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -22998,7 +22993,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23021,17 +23016,17 @@
         <v>43</v>
       </c>
       <c r="J177" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="K177" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="K177" t="s" s="2">
+      <c r="L177" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -23080,7 +23075,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -23109,7 +23104,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23132,19 +23127,19 @@
         <v>43</v>
       </c>
       <c r="J178" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K178" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K178" t="s" s="2">
+      <c r="L178" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="M178" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23193,7 +23188,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23222,7 +23217,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23245,19 +23240,19 @@
         <v>43</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="L179" t="s" s="2">
+      <c r="M179" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23306,7 +23301,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23335,7 +23330,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23358,17 +23353,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="K180" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="K180" t="s" s="2">
+      <c r="L180" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23417,7 +23412,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23446,7 +23441,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23469,17 +23464,17 @@
         <v>43</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23528,7 +23523,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23557,7 +23552,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23583,10 +23578,10 @@
         <v>43</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -23637,7 +23632,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23666,7 +23661,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23692,14 +23687,14 @@
         <v>310</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>804</v>
+      </c>
+      <c r="L183" t="s" s="2">
         <v>805</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>806</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23748,7 +23743,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>41</v>
@@ -23777,7 +23772,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23886,7 +23881,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23997,7 +23992,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24110,7 +24105,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24133,17 +24128,17 @@
         <v>43</v>
       </c>
       <c r="J187" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>811</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24192,7 +24187,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24221,7 +24216,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24244,17 +24239,17 @@
         <v>43</v>
       </c>
       <c r="J188" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24303,7 +24298,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24332,7 +24327,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24355,17 +24350,17 @@
         <v>43</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="L189" t="s" s="2">
         <v>820</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>821</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24414,7 +24409,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24443,7 +24438,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24466,17 +24461,17 @@
         <v>43</v>
       </c>
       <c r="J190" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="K190" t="s" s="2">
         <v>824</v>
       </c>
-      <c r="K190" t="s" s="2">
+      <c r="L190" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24525,7 +24520,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24554,11 +24549,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24580,16 +24575,16 @@
         <v>178</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="M191" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -24617,11 +24612,11 @@
         <v>116</v>
       </c>
       <c r="X191" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y191" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="Y191" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="Z191" t="s" s="2">
         <v>43</v>
       </c>
@@ -24638,7 +24633,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>50</v>
@@ -24667,7 +24662,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24693,16 +24688,16 @@
         <v>178</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24730,11 +24725,11 @@
         <v>116</v>
       </c>
       <c r="X192" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Y192" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y192" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
       </c>
@@ -24751,7 +24746,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>41</v>
@@ -24780,7 +24775,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24806,16 +24801,16 @@
         <v>178</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="M193" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="M193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>670</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>671</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -24843,11 +24838,11 @@
         <v>116</v>
       </c>
       <c r="X193" t="s" s="2">
+        <v>671</v>
+      </c>
+      <c r="Y193" t="s" s="2">
         <v>672</v>
       </c>
-      <c r="Y193" t="s" s="2">
-        <v>673</v>
-      </c>
       <c r="Z193" t="s" s="2">
         <v>43</v>
       </c>
@@ -24864,7 +24859,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -24893,7 +24888,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24916,17 +24911,17 @@
         <v>43</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="L194" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -24975,7 +24970,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -25004,7 +24999,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25027,17 +25022,17 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="K195" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="K195" t="s" s="2">
+      <c r="L195" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="L195" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25065,11 +25060,11 @@
         <v>116</v>
       </c>
       <c r="X195" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="Y195" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="Y195" t="s" s="2">
-        <v>684</v>
-      </c>
       <c r="Z195" t="s" s="2">
         <v>43</v>
       </c>
@@ -25086,7 +25081,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25104,7 +25099,7 @@
         <v>43</v>
       </c>
       <c r="AK195" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AL195" t="s" s="2">
         <v>43</v>
@@ -25115,7 +25110,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25138,17 +25133,17 @@
         <v>43</v>
       </c>
       <c r="J196" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="K196" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="K196" t="s" s="2">
+      <c r="L196" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25197,7 +25192,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25226,7 +25221,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25249,17 +25244,17 @@
         <v>43</v>
       </c>
       <c r="J197" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="K197" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="K197" t="s" s="2">
+      <c r="L197" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25308,7 +25303,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25337,7 +25332,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25360,19 +25355,19 @@
         <v>43</v>
       </c>
       <c r="J198" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K198" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K198" t="s" s="2">
+      <c r="L198" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L198" t="s" s="2">
+      <c r="M198" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M198" t="s" s="2">
+      <c r="N198" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25421,7 +25416,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25450,7 +25445,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25473,19 +25468,19 @@
         <v>43</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L199" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="M199" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25534,7 +25529,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25563,7 +25558,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25589,16 +25584,16 @@
         <v>178</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>707</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="L200" t="s" s="2">
-        <v>709</v>
-      </c>
       <c r="M200" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25626,11 +25621,11 @@
         <v>116</v>
       </c>
       <c r="X200" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="Y200" t="s" s="2">
         <v>712</v>
       </c>
-      <c r="Y200" t="s" s="2">
-        <v>713</v>
-      </c>
       <c r="Z200" t="s" s="2">
         <v>43</v>
       </c>
@@ -25647,7 +25642,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>41</v>
@@ -25676,7 +25671,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25702,14 +25697,14 @@
         <v>178</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>714</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>715</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25737,11 +25732,11 @@
         <v>116</v>
       </c>
       <c r="X201" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="Y201" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="Y201" t="s" s="2">
-        <v>718</v>
-      </c>
       <c r="Z201" t="s" s="2">
         <v>43</v>
       </c>
@@ -25758,7 +25753,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -25787,7 +25782,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25810,17 +25805,17 @@
         <v>43</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -25869,7 +25864,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -25898,7 +25893,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25924,10 +25919,10 @@
         <v>43</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -25978,7 +25973,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26007,7 +26002,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26033,10 +26028,10 @@
         <v>310</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -26087,7 +26082,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26116,7 +26111,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26225,7 +26220,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26336,7 +26331,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26449,11 +26444,11 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26475,16 +26470,16 @@
         <v>178</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26512,11 +26507,11 @@
         <v>116</v>
       </c>
       <c r="X208" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y208" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="Y208" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
       </c>
@@ -26533,7 +26528,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>50</v>
@@ -26562,7 +26557,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26588,16 +26583,16 @@
         <v>178</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M209" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26625,11 +26620,11 @@
         <v>116</v>
       </c>
       <c r="X209" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Y209" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y209" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
       </c>
@@ -26646,7 +26641,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26675,7 +26670,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26698,17 +26693,17 @@
         <v>43</v>
       </c>
       <c r="J210" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="K210" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="K210" t="s" s="2">
+      <c r="L210" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26757,7 +26752,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -26786,7 +26781,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26809,17 +26804,17 @@
         <v>43</v>
       </c>
       <c r="J211" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="K211" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="K211" t="s" s="2">
+      <c r="L211" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -26868,7 +26863,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -26897,7 +26892,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26920,19 +26915,19 @@
         <v>43</v>
       </c>
       <c r="J212" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K212" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K212" t="s" s="2">
+      <c r="L212" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L212" t="s" s="2">
+      <c r="M212" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M212" t="s" s="2">
+      <c r="N212" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -26981,7 +26976,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27010,7 +27005,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27033,19 +27028,19 @@
         <v>43</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="M213" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27094,7 +27089,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27123,7 +27118,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27146,17 +27141,17 @@
         <v>43</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27205,7 +27200,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27234,7 +27229,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27260,10 +27255,10 @@
         <v>43</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -27314,7 +27309,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27343,7 +27338,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27369,10 +27364,10 @@
         <v>310</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
@@ -27423,7 +27418,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27452,7 +27447,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27561,7 +27556,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27672,7 +27667,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27785,11 +27780,11 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27811,16 +27806,16 @@
         <v>178</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="L220" t="s" s="2">
+      <c r="M220" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M220" t="s" s="2">
+      <c r="N220" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -27848,11 +27843,11 @@
         <v>116</v>
       </c>
       <c r="X220" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y220" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="Y220" t="s" s="2">
-        <v>659</v>
-      </c>
       <c r="Z220" t="s" s="2">
         <v>43</v>
       </c>
@@ -27869,7 +27864,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>50</v>
@@ -27898,7 +27893,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27924,16 +27919,16 @@
         <v>178</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L221" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="M221" t="s" s="2">
         <v>662</v>
       </c>
-      <c r="M221" t="s" s="2">
+      <c r="N221" t="s" s="2">
         <v>663</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>664</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -27961,11 +27956,11 @@
         <v>116</v>
       </c>
       <c r="X221" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="Y221" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="Y221" t="s" s="2">
-        <v>666</v>
-      </c>
       <c r="Z221" t="s" s="2">
         <v>43</v>
       </c>
@@ -27982,7 +27977,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28011,7 +28006,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28034,17 +28029,17 @@
         <v>43</v>
       </c>
       <c r="J222" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="K222" t="s" s="2">
         <v>686</v>
       </c>
-      <c r="K222" t="s" s="2">
+      <c r="L222" t="s" s="2">
         <v>687</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>688</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28093,7 +28088,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28122,7 +28117,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28145,17 +28140,17 @@
         <v>43</v>
       </c>
       <c r="J223" t="s" s="2">
+        <v>690</v>
+      </c>
+      <c r="K223" t="s" s="2">
         <v>691</v>
       </c>
-      <c r="K223" t="s" s="2">
+      <c r="L223" t="s" s="2">
         <v>692</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28204,7 +28199,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28233,7 +28228,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28256,19 +28251,19 @@
         <v>43</v>
       </c>
       <c r="J224" t="s" s="2">
+        <v>695</v>
+      </c>
+      <c r="K224" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="K224" t="s" s="2">
+      <c r="L224" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L224" t="s" s="2">
+      <c r="M224" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M224" t="s" s="2">
+      <c r="N224" t="s" s="2">
         <v>699</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>700</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28317,7 +28312,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28346,7 +28341,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28369,19 +28364,19 @@
         <v>43</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="L225" t="s" s="2">
+      <c r="M225" t="s" s="2">
         <v>703</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>704</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>705</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28430,7 +28425,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28459,7 +28454,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28482,17 +28477,17 @@
         <v>43</v>
       </c>
       <c r="J226" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28541,7 +28536,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28570,7 +28565,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28596,10 +28591,10 @@
         <v>43</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -28650,7 +28645,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28679,7 +28674,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28705,14 +28700,14 @@
         <v>43</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="L228" t="s" s="2">
         <v>870</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>871</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28761,7 +28756,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -28790,7 +28785,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28816,16 +28811,16 @@
         <v>310</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>873</v>
+      </c>
+      <c r="L229" t="s" s="2">
         <v>874</v>
       </c>
-      <c r="L229" t="s" s="2">
+      <c r="M229" t="s" s="2">
         <v>875</v>
       </c>
-      <c r="M229" t="s" s="2">
+      <c r="N229" t="s" s="2">
         <v>876</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>877</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -28874,7 +28869,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -28903,7 +28898,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29012,7 +29007,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29123,7 +29118,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29236,7 +29231,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29262,16 +29257,16 @@
         <v>178</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>881</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>737</v>
+      </c>
+      <c r="N233" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>738</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>883</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29299,11 +29294,11 @@
         <v>116</v>
       </c>
       <c r="X233" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="Y233" t="s" s="2">
         <v>740</v>
       </c>
-      <c r="Y233" t="s" s="2">
-        <v>741</v>
-      </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
       </c>
@@ -29320,7 +29315,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>50</v>
@@ -29349,7 +29344,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29372,17 +29367,17 @@
         <v>51</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>884</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>885</v>
-      </c>
-      <c r="L234" t="s" s="2">
-        <v>886</v>
       </c>
       <c r="M234" s="2"/>
       <c r="N234" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29431,7 +29426,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>50</v>
@@ -29460,7 +29455,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29486,14 +29481,14 @@
         <v>310</v>
       </c>
       <c r="K235" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="L235" t="s" s="2">
         <v>889</v>
-      </c>
-      <c r="L235" t="s" s="2">
-        <v>890</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29542,7 +29537,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29571,7 +29566,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29680,7 +29675,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29791,7 +29786,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29904,7 +29899,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -29930,14 +29925,14 @@
         <v>178</v>
       </c>
       <c r="K239" t="s" s="2">
+        <v>895</v>
+      </c>
+      <c r="L239" t="s" s="2">
         <v>896</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>897</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>43</v>
@@ -29966,7 +29961,7 @@
       </c>
       <c r="X239" s="2"/>
       <c r="Y239" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="Z239" t="s" s="2">
         <v>43</v>
@@ -29984,7 +29979,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -30013,7 +30008,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30036,19 +30031,19 @@
         <v>43</v>
       </c>
       <c r="J240" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K240" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="L240" t="s" s="2">
         <v>901</v>
       </c>
-      <c r="L240" t="s" s="2">
+      <c r="M240" t="s" s="2">
         <v>902</v>
       </c>
-      <c r="M240" t="s" s="2">
+      <c r="N240" t="s" s="2">
         <v>903</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>904</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -30097,7 +30092,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -30126,7 +30121,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30152,14 +30147,14 @@
         <v>178</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>906</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>907</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30187,11 +30182,11 @@
         <v>116</v>
       </c>
       <c r="X241" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="Y241" t="s" s="2">
         <v>909</v>
       </c>
-      <c r="Y241" t="s" s="2">
-        <v>910</v>
-      </c>
       <c r="Z241" t="s" s="2">
         <v>43</v>
       </c>
@@ -30208,7 +30203,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>41</v>
@@ -30237,7 +30232,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30260,17 +30255,17 @@
         <v>43</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K242" t="s" s="2">
+        <v>911</v>
+      </c>
+      <c r="L242" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>913</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30319,7 +30314,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30348,7 +30343,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30371,17 +30366,17 @@
         <v>43</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>915</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>916</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>917</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30430,7 +30425,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30459,7 +30454,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30485,16 +30480,16 @@
         <v>159</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="L244" t="s" s="2">
         <v>920</v>
       </c>
-      <c r="L244" t="s" s="2">
+      <c r="M244" t="s" s="2">
         <v>921</v>
       </c>
-      <c r="M244" t="s" s="2">
+      <c r="N244" t="s" s="2">
         <v>922</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>923</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30543,7 +30538,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30572,7 +30567,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30598,16 +30593,16 @@
         <v>178</v>
       </c>
       <c r="K245" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="L245" t="s" s="2">
         <v>925</v>
       </c>
-      <c r="L245" t="s" s="2">
+      <c r="M245" t="s" s="2">
         <v>926</v>
       </c>
-      <c r="M245" t="s" s="2">
+      <c r="N245" t="s" s="2">
         <v>927</v>
-      </c>
-      <c r="N245" t="s" s="2">
-        <v>928</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30635,11 +30630,11 @@
         <v>116</v>
       </c>
       <c r="X245" t="s" s="2">
+        <v>928</v>
+      </c>
+      <c r="Y245" t="s" s="2">
         <v>929</v>
       </c>
-      <c r="Y245" t="s" s="2">
-        <v>930</v>
-      </c>
       <c r="Z245" t="s" s="2">
         <v>43</v>
       </c>
@@ -30656,7 +30651,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30685,7 +30680,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30708,19 +30703,19 @@
         <v>43</v>
       </c>
       <c r="J246" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="K246" t="s" s="2">
         <v>932</v>
       </c>
-      <c r="K246" t="s" s="2">
+      <c r="L246" t="s" s="2">
         <v>933</v>
       </c>
-      <c r="L246" t="s" s="2">
+      <c r="M246" t="s" s="2">
         <v>934</v>
       </c>
-      <c r="M246" t="s" s="2">
+      <c r="N246" t="s" s="2">
         <v>935</v>
-      </c>
-      <c r="N246" t="s" s="2">
-        <v>936</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30769,7 +30764,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -30798,7 +30793,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30824,14 +30819,14 @@
         <v>310</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>937</v>
+      </c>
+      <c r="L247" t="s" s="2">
         <v>938</v>
-      </c>
-      <c r="L247" t="s" s="2">
-        <v>939</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30880,7 +30875,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -30909,7 +30904,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31018,7 +31013,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31129,7 +31124,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31242,7 +31237,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31265,17 +31260,17 @@
         <v>43</v>
       </c>
       <c r="J251" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>946</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31324,7 +31319,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31353,7 +31348,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31379,14 +31374,14 @@
         <v>126</v>
       </c>
       <c r="K252" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="L252" t="s" s="2">
         <v>949</v>
-      </c>
-      <c r="L252" t="s" s="2">
-        <v>950</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31414,11 +31409,11 @@
         <v>172</v>
       </c>
       <c r="X252" t="s" s="2">
+        <v>951</v>
+      </c>
+      <c r="Y252" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="Y252" t="s" s="2">
-        <v>953</v>
-      </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
       </c>
@@ -31435,7 +31430,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31464,7 +31459,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31490,14 +31485,14 @@
         <v>52</v>
       </c>
       <c r="K253" t="s" s="2">
+        <v>954</v>
+      </c>
+      <c r="L253" t="s" s="2">
         <v>955</v>
-      </c>
-      <c r="L253" t="s" s="2">
-        <v>956</v>
       </c>
       <c r="M253" s="2"/>
       <c r="N253" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31546,7 +31541,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31575,7 +31570,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31601,16 +31596,16 @@
         <v>178</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>958</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="L254" t="s" s="2">
+      <c r="M254" t="s" s="2">
         <v>960</v>
       </c>
-      <c r="M254" t="s" s="2">
+      <c r="N254" t="s" s="2">
         <v>961</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>962</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31659,7 +31654,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31688,7 +31683,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31714,16 +31709,16 @@
         <v>205</v>
       </c>
       <c r="K255" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="L255" t="s" s="2">
         <v>964</v>
       </c>
-      <c r="L255" t="s" s="2">
+      <c r="M255" t="s" s="2">
         <v>965</v>
       </c>
-      <c r="M255" t="s" s="2">
+      <c r="N255" t="s" s="2">
         <v>966</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>967</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -31772,7 +31767,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -31801,7 +31796,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31827,10 +31822,10 @@
         <v>310</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>968</v>
+      </c>
+      <c r="L256" t="s" s="2">
         <v>969</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>970</v>
       </c>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
@@ -31881,7 +31876,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -31910,7 +31905,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32019,7 +32014,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32130,7 +32125,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32243,7 +32238,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32269,16 +32264,16 @@
         <v>178</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L260" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L260" t="s" s="2">
+      <c r="M260" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M260" t="s" s="2">
-        <v>648</v>
-      </c>
       <c r="N260" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32306,11 +32301,11 @@
         <v>116</v>
       </c>
       <c r="X260" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Y260" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="Y260" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="Z260" t="s" s="2">
         <v>43</v>
       </c>
@@ -32327,7 +32322,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>50</v>
@@ -32356,7 +32351,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32379,17 +32374,17 @@
         <v>43</v>
       </c>
       <c r="J261" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="L261" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32438,7 +32433,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32467,7 +32462,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32493,16 +32488,16 @@
         <v>52</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="L262" t="s" s="2">
+      <c r="M262" t="s" s="2">
         <v>982</v>
       </c>
-      <c r="M262" t="s" s="2">
+      <c r="N262" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>984</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32551,7 +32546,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32580,7 +32575,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32606,16 +32601,16 @@
         <v>52</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>985</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>986</v>
       </c>
-      <c r="L263" t="s" s="2">
+      <c r="M263" t="s" s="2">
         <v>987</v>
       </c>
-      <c r="M263" t="s" s="2">
+      <c r="N263" t="s" s="2">
         <v>988</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>989</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32664,7 +32659,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32693,7 +32688,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32719,14 +32714,14 @@
         <v>178</v>
       </c>
       <c r="K264" t="s" s="2">
+        <v>990</v>
+      </c>
+      <c r="L264" t="s" s="2">
         <v>991</v>
-      </c>
-      <c r="L264" t="s" s="2">
-        <v>992</v>
       </c>
       <c r="M264" s="2"/>
       <c r="N264" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -32754,11 +32749,11 @@
         <v>116</v>
       </c>
       <c r="X264" t="s" s="2">
+        <v>993</v>
+      </c>
+      <c r="Y264" t="s" s="2">
         <v>994</v>
       </c>
-      <c r="Y264" t="s" s="2">
-        <v>995</v>
-      </c>
       <c r="Z264" t="s" s="2">
         <v>43</v>
       </c>
@@ -32775,7 +32770,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -32804,7 +32799,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32830,14 +32825,14 @@
         <v>178</v>
       </c>
       <c r="K265" t="s" s="2">
+        <v>996</v>
+      </c>
+      <c r="L265" t="s" s="2">
         <v>997</v>
-      </c>
-      <c r="L265" t="s" s="2">
-        <v>998</v>
       </c>
       <c r="M265" s="2"/>
       <c r="N265" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
@@ -32865,11 +32860,11 @@
         <v>116</v>
       </c>
       <c r="X265" t="s" s="2">
+        <v>999</v>
+      </c>
+      <c r="Y265" t="s" s="2">
         <v>1000</v>
       </c>
-      <c r="Y265" t="s" s="2">
-        <v>1001</v>
-      </c>
       <c r="Z265" t="s" s="2">
         <v>43</v>
       </c>
@@ -32886,7 +32881,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -32915,7 +32910,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -32941,14 +32936,14 @@
         <v>178</v>
       </c>
       <c r="K266" t="s" s="2">
+        <v>1002</v>
+      </c>
+      <c r="L266" t="s" s="2">
         <v>1003</v>
-      </c>
-      <c r="L266" t="s" s="2">
-        <v>1004</v>
       </c>
       <c r="M266" s="2"/>
       <c r="N266" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -32976,11 +32971,11 @@
         <v>116</v>
       </c>
       <c r="X266" t="s" s="2">
+        <v>1004</v>
+      </c>
+      <c r="Y266" t="s" s="2">
         <v>1005</v>
       </c>
-      <c r="Y266" t="s" s="2">
-        <v>1006</v>
-      </c>
       <c r="Z266" t="s" s="2">
         <v>43</v>
       </c>
@@ -32997,7 +32992,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33026,7 +33021,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33052,10 +33047,10 @@
         <v>310</v>
       </c>
       <c r="K267" t="s" s="2">
+        <v>1007</v>
+      </c>
+      <c r="L267" t="s" s="2">
         <v>1008</v>
-      </c>
-      <c r="L267" t="s" s="2">
-        <v>1009</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
@@ -33106,7 +33101,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33135,7 +33130,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33244,7 +33239,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33355,7 +33350,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33468,7 +33463,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33494,16 +33489,16 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="L271" t="s" s="2">
+        <v>1013</v>
+      </c>
+      <c r="M271" t="s" s="2">
         <v>1014</v>
       </c>
-      <c r="M271" t="s" s="2">
+      <c r="N271" t="s" s="2">
         <v>1015</v>
-      </c>
-      <c r="N271" t="s" s="2">
-        <v>1016</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33531,11 +33526,11 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="Y271" t="s" s="2">
         <v>1017</v>
       </c>
-      <c r="Y271" t="s" s="2">
-        <v>1018</v>
-      </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
       </c>
@@ -33552,7 +33547,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>50</v>
@@ -33581,7 +33576,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33604,17 +33599,17 @@
         <v>43</v>
       </c>
       <c r="J272" t="s" s="2">
+        <v>1019</v>
+      </c>
+      <c r="K272" t="s" s="2">
         <v>1020</v>
       </c>
-      <c r="K272" t="s" s="2">
+      <c r="L272" t="s" s="2">
         <v>1021</v>
-      </c>
-      <c r="L272" t="s" s="2">
-        <v>1022</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33663,7 +33658,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33692,7 +33687,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33715,17 +33710,17 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
+        <v>1024</v>
+      </c>
+      <c r="K273" t="s" s="2">
         <v>1025</v>
       </c>
-      <c r="K273" t="s" s="2">
+      <c r="L273" t="s" s="2">
         <v>1026</v>
-      </c>
-      <c r="L273" t="s" s="2">
-        <v>1027</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33774,7 +33769,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9622" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9621" uniqueCount="1027">
   <si>
     <t>Path</t>
   </si>
@@ -1449,10 +1449,7 @@
     <t>Required to group or associate information items with common characteristics. For example: admission information or prior treatments.</t>
   </si>
   <si>
-    <t>The valuset used for additional information category codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-informationcategory</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/C4BBSupportingInfoType</t>
   </si>
   <si>
     <t>ExplanationOfBenefit.supportingInfo.code</t>
@@ -12008,13 +12005,11 @@
         <v>43</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="X78" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X78" s="2"/>
+      <c r="Y78" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>43</v>
@@ -12061,7 +12056,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -12087,16 +12082,16 @@
         <v>178</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>239</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>43</v>
@@ -12124,11 +12119,11 @@
         <v>116</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>470</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>43</v>
       </c>
@@ -12145,7 +12140,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -12174,7 +12169,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -12197,13 +12192,13 @@
         <v>43</v>
       </c>
       <c r="J80" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="K80" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="K80" t="s" s="2">
+      <c r="L80" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -12254,7 +12249,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -12283,7 +12278,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -12306,19 +12301,19 @@
         <v>43</v>
       </c>
       <c r="J81" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -12367,7 +12362,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -12396,7 +12391,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -12422,16 +12417,16 @@
         <v>104</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
@@ -12459,11 +12454,11 @@
         <v>116</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>487</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>43</v>
       </c>
@@ -12480,7 +12475,7 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
@@ -12509,7 +12504,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -12535,14 +12530,14 @@
         <v>310</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
@@ -12591,7 +12586,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -12620,7 +12615,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -12729,7 +12724,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -12840,7 +12835,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12953,7 +12948,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12979,16 +12974,16 @@
         <v>418</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>43</v>
@@ -13037,7 +13032,7 @@
         <v>43</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>50</v>
@@ -13066,7 +13061,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -13089,17 +13084,17 @@
         <v>43</v>
       </c>
       <c r="J88" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="K88" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="K88" t="s" s="2">
+      <c r="L88" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O88" t="s" s="2">
         <v>43</v>
@@ -13127,11 +13122,11 @@
         <v>116</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Y88" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="Z88" t="s" s="2">
         <v>43</v>
       </c>
@@ -13148,7 +13143,7 @@
         <v>43</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>50</v>
@@ -13177,7 +13172,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -13203,16 +13198,16 @@
         <v>178</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>510</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>511</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>43</v>
@@ -13240,11 +13235,11 @@
         <v>116</v>
       </c>
       <c r="X89" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="Y89" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="Y89" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="Z89" t="s" s="2">
         <v>43</v>
       </c>
@@ -13261,7 +13256,7 @@
         <v>43</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>41</v>
@@ -13290,7 +13285,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -13316,14 +13311,14 @@
         <v>178</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>43</v>
@@ -13351,11 +13346,11 @@
         <v>116</v>
       </c>
       <c r="X90" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Y90" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="Y90" t="s" s="2">
-        <v>519</v>
-      </c>
       <c r="Z90" t="s" s="2">
         <v>43</v>
       </c>
@@ -13372,7 +13367,7 @@
         <v>43</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>41</v>
@@ -13401,7 +13396,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -13427,16 +13422,16 @@
         <v>178</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>43</v>
@@ -13464,11 +13459,11 @@
         <v>116</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="Y91" t="s" s="2">
-        <v>526</v>
-      </c>
       <c r="Z91" t="s" s="2">
         <v>43</v>
       </c>
@@ -13485,7 +13480,7 @@
         <v>43</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>41</v>
@@ -13514,7 +13509,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -13540,14 +13535,14 @@
         <v>310</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>43</v>
@@ -13596,7 +13591,7 @@
         <v>43</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>41</v>
@@ -13625,7 +13620,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -13734,7 +13729,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13845,7 +13840,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -13958,7 +13953,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13984,14 +13979,14 @@
         <v>418</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>43</v>
@@ -14040,7 +14035,7 @@
         <v>43</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>50</v>
@@ -14069,7 +14064,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -14095,14 +14090,14 @@
         <v>178</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>43</v>
@@ -14130,11 +14125,11 @@
         <v>116</v>
       </c>
       <c r="X97" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Y97" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="Y97" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="Z97" t="s" s="2">
         <v>43</v>
       </c>
@@ -14151,7 +14146,7 @@
         <v>43</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>41</v>
@@ -14180,7 +14175,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -14206,14 +14201,14 @@
         <v>264</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>43</v>
@@ -14262,7 +14257,7 @@
         <v>43</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>41</v>
@@ -14291,7 +14286,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -14314,17 +14309,17 @@
         <v>43</v>
       </c>
       <c r="J99" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="K99" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="K99" t="s" s="2">
+      <c r="L99" t="s" s="2">
         <v>548</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>549</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>43</v>
@@ -14352,11 +14347,11 @@
         <v>116</v>
       </c>
       <c r="X99" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="Y99" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="Y99" t="s" s="2">
-        <v>552</v>
-      </c>
       <c r="Z99" t="s" s="2">
         <v>43</v>
       </c>
@@ -14373,7 +14368,7 @@
         <v>43</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>50</v>
@@ -14402,7 +14397,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -14425,17 +14420,17 @@
         <v>43</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>43</v>
@@ -14484,7 +14479,7 @@
         <v>43</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>41</v>
@@ -14513,7 +14508,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -14539,14 +14534,14 @@
         <v>418</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>43</v>
@@ -14595,7 +14590,7 @@
         <v>43</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>41</v>
@@ -14624,7 +14619,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14650,16 +14645,16 @@
         <v>310</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>565</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>566</v>
       </c>
       <c r="O102" t="s" s="2">
         <v>43</v>
@@ -14708,7 +14703,7 @@
         <v>43</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>50</v>
@@ -14720,16 +14715,16 @@
         <v>43</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL102" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>568</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>43</v>
@@ -14737,7 +14732,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14846,7 +14841,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14957,7 +14952,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -15070,7 +15065,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -15096,16 +15091,16 @@
         <v>428</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>43</v>
@@ -15154,7 +15149,7 @@
         <v>43</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>50</v>
@@ -15183,7 +15178,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -15206,17 +15201,17 @@
         <v>51</v>
       </c>
       <c r="J107" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="K107" t="s" s="2">
         <v>578</v>
       </c>
-      <c r="K107" t="s" s="2">
+      <c r="L107" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>580</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>43</v>
@@ -15265,7 +15260,7 @@
         <v>43</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>50</v>
@@ -15294,7 +15289,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -15320,16 +15315,16 @@
         <v>52</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>43</v>
@@ -15378,7 +15373,7 @@
         <v>43</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>41</v>
@@ -15407,7 +15402,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -15433,14 +15428,14 @@
         <v>310</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="O109" t="s" s="2">
         <v>43</v>
@@ -15489,7 +15484,7 @@
         <v>43</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>41</v>
@@ -15518,7 +15513,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15627,7 +15622,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15738,7 +15733,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15851,7 +15846,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15874,19 +15869,19 @@
         <v>43</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>595</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="L113" t="s" s="2">
+      <c r="M113" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>598</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O113" t="s" s="2">
         <v>43</v>
@@ -15935,7 +15930,7 @@
         <v>43</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
@@ -15964,7 +15959,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15990,14 +15985,14 @@
         <v>178</v>
       </c>
       <c r="K114" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="L114" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O114" t="s" s="2">
         <v>43</v>
@@ -16025,11 +16020,11 @@
         <v>108</v>
       </c>
       <c r="X114" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="Y114" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="Y114" t="s" s="2">
-        <v>605</v>
-      </c>
       <c r="Z114" t="s" s="2">
         <v>43</v>
       </c>
@@ -16046,7 +16041,7 @@
         <v>43</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>41</v>
@@ -16075,7 +16070,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -16098,17 +16093,17 @@
         <v>43</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="K115" t="s" s="2">
+      <c r="L115" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O115" t="s" s="2">
         <v>43</v>
@@ -16157,7 +16152,7 @@
         <v>43</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>41</v>
@@ -16186,7 +16181,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -16212,14 +16207,14 @@
         <v>310</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L116" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="M116" s="2"/>
       <c r="N116" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O116" t="s" s="2">
         <v>43</v>
@@ -16268,7 +16263,7 @@
         <v>43</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>41</v>
@@ -16297,7 +16292,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -16406,7 +16401,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16517,7 +16512,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16630,7 +16625,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16656,14 +16651,14 @@
         <v>418</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>43</v>
@@ -16712,7 +16707,7 @@
         <v>43</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>50</v>
@@ -16741,7 +16736,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16767,14 +16762,14 @@
         <v>418</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>623</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="M121" s="2"/>
       <c r="N121" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>43</v>
@@ -16823,7 +16818,7 @@
         <v>43</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>41</v>
@@ -16852,7 +16847,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16878,14 +16873,14 @@
         <v>418</v>
       </c>
       <c r="K122" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="L122" t="s" s="2">
         <v>627</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>628</v>
       </c>
       <c r="M122" s="2"/>
       <c r="N122" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O122" t="s" s="2">
         <v>43</v>
@@ -16934,7 +16929,7 @@
         <v>43</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>41</v>
@@ -16963,7 +16958,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16989,14 +16984,14 @@
         <v>418</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="M123" s="2"/>
       <c r="N123" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>43</v>
@@ -17045,7 +17040,7 @@
         <v>43</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>41</v>
@@ -17074,7 +17069,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -17100,14 +17095,14 @@
         <v>418</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="M124" s="2"/>
       <c r="N124" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="O124" t="s" s="2">
         <v>43</v>
@@ -17156,7 +17151,7 @@
         <v>43</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>41</v>
@@ -17185,7 +17180,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -17211,14 +17206,14 @@
         <v>178</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O125" t="s" s="2">
         <v>43</v>
@@ -17246,11 +17241,11 @@
         <v>116</v>
       </c>
       <c r="X125" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="Y125" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="Y125" t="s" s="2">
-        <v>643</v>
-      </c>
       <c r="Z125" t="s" s="2">
         <v>43</v>
       </c>
@@ -17267,7 +17262,7 @@
         <v>43</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>41</v>
@@ -17296,7 +17291,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -17322,16 +17317,16 @@
         <v>178</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M126" t="s" s="2">
+      <c r="N126" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>43</v>
@@ -17359,11 +17354,11 @@
         <v>116</v>
       </c>
       <c r="X126" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="Y126" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="Y126" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="Z126" t="s" s="2">
         <v>43</v>
       </c>
@@ -17380,7 +17375,7 @@
         <v>43</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>41</v>
@@ -17409,11 +17404,11 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -17435,16 +17430,16 @@
         <v>178</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M127" t="s" s="2">
+      <c r="N127" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="N127" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>43</v>
@@ -17472,11 +17467,11 @@
         <v>116</v>
       </c>
       <c r="X127" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="Y127" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="Y127" t="s" s="2">
-        <v>658</v>
-      </c>
       <c r="Z127" t="s" s="2">
         <v>43</v>
       </c>
@@ -17493,7 +17488,7 @@
         <v>43</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>50</v>
@@ -17522,7 +17517,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17548,16 +17543,16 @@
         <v>178</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>660</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="M128" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="M128" t="s" s="2">
+      <c r="N128" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="N128" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>43</v>
@@ -17585,11 +17580,11 @@
         <v>116</v>
       </c>
       <c r="X128" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="Y128" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="Y128" t="s" s="2">
-        <v>665</v>
-      </c>
       <c r="Z128" t="s" s="2">
         <v>43</v>
       </c>
@@ -17606,7 +17601,7 @@
         <v>43</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>41</v>
@@ -17635,7 +17630,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17661,16 +17656,16 @@
         <v>178</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L129" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="M129" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>43</v>
@@ -17698,11 +17693,11 @@
         <v>116</v>
       </c>
       <c r="X129" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="Y129" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="Y129" t="s" s="2">
-        <v>672</v>
-      </c>
       <c r="Z129" t="s" s="2">
         <v>43</v>
       </c>
@@ -17719,7 +17714,7 @@
         <v>43</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>41</v>
@@ -17748,7 +17743,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17771,17 +17766,17 @@
         <v>43</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>43</v>
@@ -17830,7 +17825,7 @@
         <v>43</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>41</v>
@@ -17859,7 +17854,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17882,17 +17877,17 @@
         <v>43</v>
       </c>
       <c r="J131" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="K131" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="K131" t="s" s="2">
+      <c r="L131" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>43</v>
@@ -17920,11 +17915,11 @@
         <v>116</v>
       </c>
       <c r="X131" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="Y131" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="Y131" t="s" s="2">
-        <v>683</v>
-      </c>
       <c r="Z131" t="s" s="2">
         <v>43</v>
       </c>
@@ -17941,7 +17936,7 @@
         <v>43</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>41</v>
@@ -17970,7 +17965,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17993,17 +17988,17 @@
         <v>43</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="K132" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="K132" t="s" s="2">
+      <c r="L132" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="L132" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>43</v>
@@ -18052,7 +18047,7 @@
         <v>43</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>41</v>
@@ -18081,7 +18076,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -18104,17 +18099,17 @@
         <v>43</v>
       </c>
       <c r="J133" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="K133" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="K133" t="s" s="2">
+      <c r="L133" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="L133" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>43</v>
@@ -18163,7 +18158,7 @@
         <v>43</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>41</v>
@@ -18192,7 +18187,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -18215,19 +18210,19 @@
         <v>43</v>
       </c>
       <c r="J134" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="K134" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="K134" t="s" s="2">
+      <c r="L134" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>43</v>
@@ -18276,7 +18271,7 @@
         <v>43</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>41</v>
@@ -18305,7 +18300,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -18328,19 +18323,19 @@
         <v>43</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K135" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L135" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L135" t="s" s="2">
+      <c r="M135" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="M135" t="s" s="2">
+      <c r="N135" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>43</v>
@@ -18389,7 +18384,7 @@
         <v>43</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>41</v>
@@ -18418,7 +18413,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -18441,17 +18436,17 @@
         <v>43</v>
       </c>
       <c r="J136" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="K136" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="K136" t="s" s="2">
+      <c r="L136" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="L136" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="M136" s="2"/>
       <c r="N136" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>43</v>
@@ -18500,7 +18495,7 @@
         <v>43</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>41</v>
@@ -18529,7 +18524,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18555,16 +18550,16 @@
         <v>178</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>708</v>
       </c>
-      <c r="M137" t="s" s="2">
+      <c r="N137" t="s" s="2">
         <v>709</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>710</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>43</v>
@@ -18592,11 +18587,11 @@
         <v>116</v>
       </c>
       <c r="X137" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="Y137" t="s" s="2">
         <v>711</v>
       </c>
-      <c r="Y137" t="s" s="2">
-        <v>712</v>
-      </c>
       <c r="Z137" t="s" s="2">
         <v>43</v>
       </c>
@@ -18613,7 +18608,7 @@
         <v>43</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>41</v>
@@ -18642,7 +18637,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18668,14 +18663,14 @@
         <v>178</v>
       </c>
       <c r="K138" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="L138" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="L138" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O138" t="s" s="2">
         <v>43</v>
@@ -18703,11 +18698,11 @@
         <v>116</v>
       </c>
       <c r="X138" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="Y138" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="Y138" t="s" s="2">
-        <v>717</v>
-      </c>
       <c r="Z138" t="s" s="2">
         <v>43</v>
       </c>
@@ -18724,7 +18719,7 @@
         <v>43</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>41</v>
@@ -18753,7 +18748,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18776,17 +18771,17 @@
         <v>43</v>
       </c>
       <c r="J139" t="s" s="2">
+        <v>718</v>
+      </c>
+      <c r="K139" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="K139" t="s" s="2">
+      <c r="L139" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="L139" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="M139" s="2"/>
       <c r="N139" t="s" s="2">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>43</v>
@@ -18835,7 +18830,7 @@
         <v>43</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>41</v>
@@ -18864,7 +18859,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18890,14 +18885,14 @@
         <v>418</v>
       </c>
       <c r="K140" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="L140" t="s" s="2">
         <v>724</v>
-      </c>
-      <c r="L140" t="s" s="2">
-        <v>725</v>
       </c>
       <c r="M140" s="2"/>
       <c r="N140" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O140" t="s" s="2">
         <v>43</v>
@@ -18946,7 +18941,7 @@
         <v>43</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>41</v>
@@ -18975,7 +18970,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -19001,14 +18996,14 @@
         <v>310</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>727</v>
+      </c>
+      <c r="L141" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O141" t="s" s="2">
         <v>43</v>
@@ -19057,7 +19052,7 @@
         <v>43</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>41</v>
@@ -19086,7 +19081,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -19195,7 +19190,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -19306,7 +19301,7 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -19419,7 +19414,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -19445,16 +19440,16 @@
         <v>178</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>736</v>
       </c>
-      <c r="M145" t="s" s="2">
+      <c r="N145" t="s" s="2">
         <v>737</v>
-      </c>
-      <c r="N145" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>43</v>
@@ -19482,11 +19477,11 @@
         <v>116</v>
       </c>
       <c r="X145" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="Y145" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="Y145" t="s" s="2">
-        <v>740</v>
-      </c>
       <c r="Z145" t="s" s="2">
         <v>43</v>
       </c>
@@ -19503,7 +19498,7 @@
         <v>43</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>50</v>
@@ -19532,7 +19527,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19558,16 +19553,16 @@
         <v>178</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>742</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>743</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>745</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>43</v>
@@ -19595,11 +19590,11 @@
         <v>116</v>
       </c>
       <c r="X146" t="s" s="2">
+        <v>745</v>
+      </c>
+      <c r="Y146" t="s" s="2">
         <v>746</v>
       </c>
-      <c r="Y146" t="s" s="2">
-        <v>747</v>
-      </c>
       <c r="Z146" t="s" s="2">
         <v>43</v>
       </c>
@@ -19616,7 +19611,7 @@
         <v>43</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>41</v>
@@ -19645,7 +19640,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19668,19 +19663,19 @@
         <v>43</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>749</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>750</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>751</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>43</v>
@@ -19729,7 +19724,7 @@
         <v>43</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>41</v>
@@ -19758,7 +19753,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19781,19 +19776,19 @@
         <v>43</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>754</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>755</v>
       </c>
-      <c r="M148" t="s" s="2">
+      <c r="N148" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>757</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>43</v>
@@ -19842,7 +19837,7 @@
         <v>43</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>41</v>
@@ -19871,7 +19866,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19897,10 +19892,10 @@
         <v>310</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>758</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>759</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>760</v>
       </c>
       <c r="M149" s="2"/>
       <c r="N149" s="2"/>
@@ -19951,7 +19946,7 @@
         <v>43</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>41</v>
@@ -19980,7 +19975,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -20089,7 +20084,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -20200,7 +20195,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -20313,7 +20308,7 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -20339,14 +20334,14 @@
         <v>418</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O153" t="s" s="2">
         <v>43</v>
@@ -20395,7 +20390,7 @@
         <v>43</v>
       </c>
       <c r="AE153" t="s" s="2">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AF153" t="s" s="2">
         <v>50</v>
@@ -20424,7 +20419,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -20450,14 +20445,14 @@
         <v>178</v>
       </c>
       <c r="K154" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L154" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="L154" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="M154" s="2"/>
       <c r="N154" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O154" t="s" s="2">
         <v>43</v>
@@ -20485,11 +20480,11 @@
         <v>116</v>
       </c>
       <c r="X154" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="Y154" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="Y154" t="s" s="2">
-        <v>643</v>
-      </c>
       <c r="Z154" t="s" s="2">
         <v>43</v>
       </c>
@@ -20506,7 +20501,7 @@
         <v>43</v>
       </c>
       <c r="AE154" t="s" s="2">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AF154" t="s" s="2">
         <v>41</v>
@@ -20535,7 +20530,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20561,16 +20556,16 @@
         <v>178</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L155" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L155" t="s" s="2">
-        <v>646</v>
-      </c>
       <c r="M155" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>43</v>
@@ -20598,11 +20593,11 @@
         <v>116</v>
       </c>
       <c r="X155" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="Y155" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="Y155" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="Z155" t="s" s="2">
         <v>43</v>
       </c>
@@ -20619,7 +20614,7 @@
         <v>43</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>41</v>
@@ -20648,11 +20643,11 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
@@ -20674,16 +20669,16 @@
         <v>178</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L156" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="M156" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>43</v>
@@ -20711,11 +20706,11 @@
         <v>116</v>
       </c>
       <c r="X156" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="Y156" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="Y156" t="s" s="2">
-        <v>658</v>
-      </c>
       <c r="Z156" t="s" s="2">
         <v>43</v>
       </c>
@@ -20732,7 +20727,7 @@
         <v>43</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>50</v>
@@ -20761,7 +20756,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20787,16 +20782,16 @@
         <v>178</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="O157" t="s" s="2">
         <v>43</v>
@@ -20824,11 +20819,11 @@
         <v>116</v>
       </c>
       <c r="X157" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="Y157" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="Y157" t="s" s="2">
-        <v>665</v>
-      </c>
       <c r="Z157" t="s" s="2">
         <v>43</v>
       </c>
@@ -20845,7 +20840,7 @@
         <v>43</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>41</v>
@@ -20874,7 +20869,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20900,16 +20895,16 @@
         <v>178</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L158" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="M158" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>43</v>
@@ -20937,11 +20932,11 @@
         <v>116</v>
       </c>
       <c r="X158" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="Y158" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="Y158" t="s" s="2">
-        <v>672</v>
-      </c>
       <c r="Z158" t="s" s="2">
         <v>43</v>
       </c>
@@ -20958,7 +20953,7 @@
         <v>43</v>
       </c>
       <c r="AE158" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AF158" t="s" s="2">
         <v>41</v>
@@ -20987,7 +20982,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -21010,17 +21005,17 @@
         <v>43</v>
       </c>
       <c r="J159" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="K159" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="K159" t="s" s="2">
+      <c r="L159" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="L159" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="M159" s="2"/>
       <c r="N159" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O159" t="s" s="2">
         <v>43</v>
@@ -21069,7 +21064,7 @@
         <v>43</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AF159" t="s" s="2">
         <v>41</v>
@@ -21098,7 +21093,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21121,17 +21116,17 @@
         <v>43</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="K160" t="s" s="2">
+      <c r="L160" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="L160" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="M160" s="2"/>
       <c r="N160" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O160" t="s" s="2">
         <v>43</v>
@@ -21180,7 +21175,7 @@
         <v>43</v>
       </c>
       <c r="AE160" t="s" s="2">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AF160" t="s" s="2">
         <v>41</v>
@@ -21209,7 +21204,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -21232,19 +21227,19 @@
         <v>43</v>
       </c>
       <c r="J161" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="K161" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="K161" t="s" s="2">
+      <c r="L161" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="M161" t="s" s="2">
+      <c r="N161" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>43</v>
@@ -21293,7 +21288,7 @@
         <v>43</v>
       </c>
       <c r="AE161" t="s" s="2">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>41</v>
@@ -21322,7 +21317,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21345,19 +21340,19 @@
         <v>43</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O162" t="s" s="2">
         <v>43</v>
@@ -21406,7 +21401,7 @@
         <v>43</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>41</v>
@@ -21435,7 +21430,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21458,17 +21453,17 @@
         <v>43</v>
       </c>
       <c r="J163" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="K163" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="K163" t="s" s="2">
+      <c r="L163" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="L163" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O163" t="s" s="2">
         <v>43</v>
@@ -21517,7 +21512,7 @@
         <v>43</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>41</v>
@@ -21546,7 +21541,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21572,14 +21567,14 @@
         <v>418</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M164" s="2"/>
       <c r="N164" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>43</v>
@@ -21628,7 +21623,7 @@
         <v>43</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>41</v>
@@ -21657,7 +21652,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21683,10 +21678,10 @@
         <v>43</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>780</v>
+      </c>
+      <c r="L165" t="s" s="2">
         <v>781</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>782</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -21737,7 +21732,7 @@
         <v>43</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>41</v>
@@ -21766,7 +21761,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s" s="2">
@@ -21792,10 +21787,10 @@
         <v>310</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -21846,7 +21841,7 @@
         <v>43</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>41</v>
@@ -21875,7 +21870,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21984,7 +21979,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -22095,7 +22090,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -22208,7 +22203,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22234,14 +22229,14 @@
         <v>418</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>43</v>
@@ -22290,7 +22285,7 @@
         <v>43</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>50</v>
@@ -22319,7 +22314,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22345,14 +22340,14 @@
         <v>178</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="L171" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="L171" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="M171" s="2"/>
       <c r="N171" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>43</v>
@@ -22380,11 +22375,11 @@
         <v>116</v>
       </c>
       <c r="X171" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="Y171" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="Y171" t="s" s="2">
-        <v>643</v>
-      </c>
       <c r="Z171" t="s" s="2">
         <v>43</v>
       </c>
@@ -22401,7 +22396,7 @@
         <v>43</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>41</v>
@@ -22430,7 +22425,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
@@ -22456,16 +22451,16 @@
         <v>178</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L172" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="M172" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>647</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>648</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>43</v>
@@ -22493,11 +22488,11 @@
         <v>116</v>
       </c>
       <c r="X172" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="Y172" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="Y172" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="Z172" t="s" s="2">
         <v>43</v>
       </c>
@@ -22514,7 +22509,7 @@
         <v>43</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>41</v>
@@ -22543,11 +22538,11 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" t="s" s="2">
@@ -22569,16 +22564,16 @@
         <v>178</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L173" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="M173" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>43</v>
@@ -22606,11 +22601,11 @@
         <v>116</v>
       </c>
       <c r="X173" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="Y173" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="Y173" t="s" s="2">
-        <v>658</v>
-      </c>
       <c r="Z173" t="s" s="2">
         <v>43</v>
       </c>
@@ -22627,7 +22622,7 @@
         <v>43</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>50</v>
@@ -22656,7 +22651,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22682,16 +22677,16 @@
         <v>178</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>43</v>
@@ -22719,11 +22714,11 @@
         <v>116</v>
       </c>
       <c r="X174" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="Y174" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="Y174" t="s" s="2">
-        <v>665</v>
-      </c>
       <c r="Z174" t="s" s="2">
         <v>43</v>
       </c>
@@ -22740,7 +22735,7 @@
         <v>43</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>41</v>
@@ -22769,7 +22764,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22795,16 +22790,16 @@
         <v>178</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L175" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="L175" t="s" s="2">
+      <c r="M175" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M175" t="s" s="2">
+      <c r="N175" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>43</v>
@@ -22832,11 +22827,11 @@
         <v>116</v>
       </c>
       <c r="X175" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="Y175" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="Y175" t="s" s="2">
-        <v>672</v>
-      </c>
       <c r="Z175" t="s" s="2">
         <v>43</v>
       </c>
@@ -22853,7 +22848,7 @@
         <v>43</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>41</v>
@@ -22882,7 +22877,7 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" t="s" s="2">
@@ -22905,17 +22900,17 @@
         <v>43</v>
       </c>
       <c r="J176" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="K176" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="K176" t="s" s="2">
+      <c r="L176" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="M176" s="2"/>
       <c r="N176" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O176" t="s" s="2">
         <v>43</v>
@@ -22964,7 +22959,7 @@
         <v>43</v>
       </c>
       <c r="AE176" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AF176" t="s" s="2">
         <v>41</v>
@@ -22993,7 +22988,7 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B177" s="2"/>
       <c r="C177" t="s" s="2">
@@ -23016,17 +23011,17 @@
         <v>43</v>
       </c>
       <c r="J177" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="K177" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="K177" t="s" s="2">
+      <c r="L177" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="L177" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="M177" s="2"/>
       <c r="N177" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O177" t="s" s="2">
         <v>43</v>
@@ -23075,7 +23070,7 @@
         <v>43</v>
       </c>
       <c r="AE177" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AF177" t="s" s="2">
         <v>41</v>
@@ -23104,7 +23099,7 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
@@ -23127,19 +23122,19 @@
         <v>43</v>
       </c>
       <c r="J178" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="K178" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="K178" t="s" s="2">
+      <c r="L178" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L178" t="s" s="2">
+      <c r="M178" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="M178" t="s" s="2">
+      <c r="N178" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="N178" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="O178" t="s" s="2">
         <v>43</v>
@@ -23188,7 +23183,7 @@
         <v>43</v>
       </c>
       <c r="AE178" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AF178" t="s" s="2">
         <v>41</v>
@@ -23217,7 +23212,7 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" t="s" s="2">
@@ -23240,19 +23235,19 @@
         <v>43</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K179" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L179" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L179" t="s" s="2">
+      <c r="M179" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="N179" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>43</v>
@@ -23301,7 +23296,7 @@
         <v>43</v>
       </c>
       <c r="AE179" t="s" s="2">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AF179" t="s" s="2">
         <v>41</v>
@@ -23330,7 +23325,7 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" t="s" s="2">
@@ -23353,17 +23348,17 @@
         <v>43</v>
       </c>
       <c r="J180" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="K180" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="K180" t="s" s="2">
+      <c r="L180" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="L180" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="M180" s="2"/>
       <c r="N180" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="O180" t="s" s="2">
         <v>43</v>
@@ -23412,7 +23407,7 @@
         <v>43</v>
       </c>
       <c r="AE180" t="s" s="2">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AF180" t="s" s="2">
         <v>41</v>
@@ -23441,7 +23436,7 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" t="s" s="2">
@@ -23467,14 +23462,14 @@
         <v>418</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M181" s="2"/>
       <c r="N181" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O181" t="s" s="2">
         <v>43</v>
@@ -23523,7 +23518,7 @@
         <v>43</v>
       </c>
       <c r="AE181" t="s" s="2">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AF181" t="s" s="2">
         <v>41</v>
@@ -23552,7 +23547,7 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" t="s" s="2">
@@ -23578,10 +23573,10 @@
         <v>43</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M182" s="2"/>
       <c r="N182" s="2"/>
@@ -23632,7 +23627,7 @@
         <v>43</v>
       </c>
       <c r="AE182" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AF182" t="s" s="2">
         <v>41</v>
@@ -23661,7 +23656,7 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" t="s" s="2">
@@ -23687,14 +23682,14 @@
         <v>310</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>803</v>
+      </c>
+      <c r="L183" t="s" s="2">
         <v>804</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>805</v>
       </c>
       <c r="M183" s="2"/>
       <c r="N183" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="O183" t="s" s="2">
         <v>43</v>
@@ -23743,7 +23738,7 @@
         <v>43</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AF183" t="s" s="2">
         <v>41</v>
@@ -23772,7 +23767,7 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s" s="2">
@@ -23881,7 +23876,7 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s" s="2">
@@ -23992,7 +23987,7 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s" s="2">
@@ -24105,7 +24100,7 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s" s="2">
@@ -24131,14 +24126,14 @@
         <v>418</v>
       </c>
       <c r="K187" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="L187" t="s" s="2">
         <v>811</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>812</v>
       </c>
       <c r="M187" s="2"/>
       <c r="N187" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O187" t="s" s="2">
         <v>43</v>
@@ -24187,7 +24182,7 @@
         <v>43</v>
       </c>
       <c r="AE187" t="s" s="2">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AF187" t="s" s="2">
         <v>41</v>
@@ -24216,7 +24211,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s" s="2">
@@ -24242,14 +24237,14 @@
         <v>418</v>
       </c>
       <c r="K188" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="L188" t="s" s="2">
         <v>815</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>816</v>
       </c>
       <c r="M188" s="2"/>
       <c r="N188" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O188" t="s" s="2">
         <v>43</v>
@@ -24298,7 +24293,7 @@
         <v>43</v>
       </c>
       <c r="AE188" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AF188" t="s" s="2">
         <v>41</v>
@@ -24327,7 +24322,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s" s="2">
@@ -24353,14 +24348,14 @@
         <v>418</v>
       </c>
       <c r="K189" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="L189" t="s" s="2">
         <v>819</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>820</v>
       </c>
       <c r="M189" s="2"/>
       <c r="N189" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O189" t="s" s="2">
         <v>43</v>
@@ -24409,7 +24404,7 @@
         <v>43</v>
       </c>
       <c r="AE189" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AF189" t="s" s="2">
         <v>41</v>
@@ -24438,7 +24433,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
@@ -24461,17 +24456,17 @@
         <v>43</v>
       </c>
       <c r="J190" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="K190" t="s" s="2">
         <v>823</v>
       </c>
-      <c r="K190" t="s" s="2">
+      <c r="L190" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>825</v>
       </c>
       <c r="M190" s="2"/>
       <c r="N190" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O190" t="s" s="2">
         <v>43</v>
@@ -24520,7 +24515,7 @@
         <v>43</v>
       </c>
       <c r="AE190" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AF190" t="s" s="2">
         <v>41</v>
@@ -24549,11 +24544,11 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" t="s" s="2">
@@ -24575,16 +24570,16 @@
         <v>178</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L191" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="M191" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>43</v>
@@ -24612,11 +24607,11 @@
         <v>116</v>
       </c>
       <c r="X191" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="Y191" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="Y191" t="s" s="2">
-        <v>658</v>
-      </c>
       <c r="Z191" t="s" s="2">
         <v>43</v>
       </c>
@@ -24633,7 +24628,7 @@
         <v>43</v>
       </c>
       <c r="AE191" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AF191" t="s" s="2">
         <v>50</v>
@@ -24662,7 +24657,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s" s="2">
@@ -24688,16 +24683,16 @@
         <v>178</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M192" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="N192" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="O192" t="s" s="2">
         <v>43</v>
@@ -24725,11 +24720,11 @@
         <v>116</v>
       </c>
       <c r="X192" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="Y192" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="Y192" t="s" s="2">
-        <v>665</v>
-      </c>
       <c r="Z192" t="s" s="2">
         <v>43</v>
       </c>
@@ -24746,7 +24741,7 @@
         <v>43</v>
       </c>
       <c r="AE192" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AF192" t="s" s="2">
         <v>41</v>
@@ -24775,7 +24770,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s" s="2">
@@ -24801,16 +24796,16 @@
         <v>178</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="L193" t="s" s="2">
         <v>667</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="M193" t="s" s="2">
         <v>668</v>
       </c>
-      <c r="M193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>669</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>670</v>
       </c>
       <c r="O193" t="s" s="2">
         <v>43</v>
@@ -24838,11 +24833,11 @@
         <v>116</v>
       </c>
       <c r="X193" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="Y193" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="Y193" t="s" s="2">
-        <v>672</v>
-      </c>
       <c r="Z193" t="s" s="2">
         <v>43</v>
       </c>
@@ -24859,7 +24854,7 @@
         <v>43</v>
       </c>
       <c r="AE193" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AF193" t="s" s="2">
         <v>41</v>
@@ -24888,7 +24883,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s" s="2">
@@ -24911,17 +24906,17 @@
         <v>43</v>
       </c>
       <c r="J194" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="L194" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>675</v>
       </c>
       <c r="M194" s="2"/>
       <c r="N194" t="s" s="2">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O194" t="s" s="2">
         <v>43</v>
@@ -24970,7 +24965,7 @@
         <v>43</v>
       </c>
       <c r="AE194" t="s" s="2">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AF194" t="s" s="2">
         <v>41</v>
@@ -24999,7 +24994,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s" s="2">
@@ -25022,17 +25017,17 @@
         <v>43</v>
       </c>
       <c r="J195" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="K195" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="K195" t="s" s="2">
+      <c r="L195" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="L195" t="s" s="2">
-        <v>680</v>
       </c>
       <c r="M195" s="2"/>
       <c r="N195" t="s" s="2">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O195" t="s" s="2">
         <v>43</v>
@@ -25060,11 +25055,11 @@
         <v>116</v>
       </c>
       <c r="X195" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="Y195" t="s" s="2">
         <v>682</v>
       </c>
-      <c r="Y195" t="s" s="2">
-        <v>683</v>
-      </c>
       <c r="Z195" t="s" s="2">
         <v>43</v>
       </c>
@@ -25081,7 +25076,7 @@
         <v>43</v>
       </c>
       <c r="AE195" t="s" s="2">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AF195" t="s" s="2">
         <v>41</v>
@@ -25110,7 +25105,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s" s="2">
@@ -25133,17 +25128,17 @@
         <v>43</v>
       </c>
       <c r="J196" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="K196" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="K196" t="s" s="2">
+      <c r="L196" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="L196" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="M196" s="2"/>
       <c r="N196" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O196" t="s" s="2">
         <v>43</v>
@@ -25192,7 +25187,7 @@
         <v>43</v>
       </c>
       <c r="AE196" t="s" s="2">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AF196" t="s" s="2">
         <v>41</v>
@@ -25221,7 +25216,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s" s="2">
@@ -25244,17 +25239,17 @@
         <v>43</v>
       </c>
       <c r="J197" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="K197" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="K197" t="s" s="2">
+      <c r="L197" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="L197" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="M197" s="2"/>
       <c r="N197" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O197" t="s" s="2">
         <v>43</v>
@@ -25303,7 +25298,7 @@
         <v>43</v>
       </c>
       <c r="AE197" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AF197" t="s" s="2">
         <v>41</v>
@@ -25332,7 +25327,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s" s="2">
@@ -25355,19 +25350,19 @@
         <v>43</v>
       </c>
       <c r="J198" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="K198" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="K198" t="s" s="2">
+      <c r="L198" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L198" t="s" s="2">
+      <c r="M198" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="M198" t="s" s="2">
+      <c r="N198" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="N198" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="O198" t="s" s="2">
         <v>43</v>
@@ -25416,7 +25411,7 @@
         <v>43</v>
       </c>
       <c r="AE198" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AF198" t="s" s="2">
         <v>41</v>
@@ -25445,7 +25440,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s" s="2">
@@ -25468,19 +25463,19 @@
         <v>43</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L199" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="M199" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="M199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O199" t="s" s="2">
         <v>43</v>
@@ -25529,7 +25524,7 @@
         <v>43</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AF199" t="s" s="2">
         <v>41</v>
@@ -25558,7 +25553,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s" s="2">
@@ -25584,16 +25579,16 @@
         <v>178</v>
       </c>
       <c r="K200" t="s" s="2">
+        <v>706</v>
+      </c>
+      <c r="L200" t="s" s="2">
         <v>707</v>
       </c>
-      <c r="L200" t="s" s="2">
-        <v>708</v>
-      </c>
       <c r="M200" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N200" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O200" t="s" s="2">
         <v>43</v>
@@ -25621,11 +25616,11 @@
         <v>116</v>
       </c>
       <c r="X200" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="Y200" t="s" s="2">
         <v>711</v>
       </c>
-      <c r="Y200" t="s" s="2">
-        <v>712</v>
-      </c>
       <c r="Z200" t="s" s="2">
         <v>43</v>
       </c>
@@ -25642,7 +25637,7 @@
         <v>43</v>
       </c>
       <c r="AE200" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AF200" t="s" s="2">
         <v>41</v>
@@ -25671,7 +25666,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s" s="2">
@@ -25697,14 +25692,14 @@
         <v>178</v>
       </c>
       <c r="K201" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="L201" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="L201" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="M201" s="2"/>
       <c r="N201" t="s" s="2">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O201" t="s" s="2">
         <v>43</v>
@@ -25732,11 +25727,11 @@
         <v>116</v>
       </c>
       <c r="X201" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="Y201" t="s" s="2">
         <v>716</v>
       </c>
-      <c r="Y201" t="s" s="2">
-        <v>717</v>
-      </c>
       <c r="Z201" t="s" s="2">
         <v>43</v>
       </c>
@@ -25753,7 +25748,7 @@
         <v>43</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AF201" t="s" s="2">
         <v>41</v>
@@ -25782,7 +25777,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s" s="2">
@@ -25808,14 +25803,14 @@
         <v>418</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M202" s="2"/>
       <c r="N202" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O202" t="s" s="2">
         <v>43</v>
@@ -25864,7 +25859,7 @@
         <v>43</v>
       </c>
       <c r="AE202" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AF202" t="s" s="2">
         <v>41</v>
@@ -25893,7 +25888,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s" s="2">
@@ -25919,10 +25914,10 @@
         <v>43</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M203" s="2"/>
       <c r="N203" s="2"/>
@@ -25973,7 +25968,7 @@
         <v>43</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AF203" t="s" s="2">
         <v>41</v>
@@ -26002,7 +25997,7 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s" s="2">
@@ -26028,10 +26023,10 @@
         <v>310</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="M204" s="2"/>
       <c r="N204" s="2"/>
@@ -26082,7 +26077,7 @@
         <v>43</v>
       </c>
       <c r="AE204" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AF204" t="s" s="2">
         <v>41</v>
@@ -26111,7 +26106,7 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s" s="2">
@@ -26220,7 +26215,7 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s" s="2">
@@ -26331,7 +26326,7 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s" s="2">
@@ -26444,11 +26439,11 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" t="s" s="2">
@@ -26470,16 +26465,16 @@
         <v>178</v>
       </c>
       <c r="K208" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L208" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L208" t="s" s="2">
+      <c r="M208" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M208" t="s" s="2">
+      <c r="N208" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="N208" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="O208" t="s" s="2">
         <v>43</v>
@@ -26507,11 +26502,11 @@
         <v>116</v>
       </c>
       <c r="X208" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="Y208" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="Y208" t="s" s="2">
-        <v>658</v>
-      </c>
       <c r="Z208" t="s" s="2">
         <v>43</v>
       </c>
@@ -26528,7 +26523,7 @@
         <v>43</v>
       </c>
       <c r="AE208" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AF208" t="s" s="2">
         <v>50</v>
@@ -26557,7 +26552,7 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s" s="2">
@@ -26583,16 +26578,16 @@
         <v>178</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L209" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M209" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="O209" t="s" s="2">
         <v>43</v>
@@ -26620,11 +26615,11 @@
         <v>116</v>
       </c>
       <c r="X209" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="Y209" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="Y209" t="s" s="2">
-        <v>665</v>
-      </c>
       <c r="Z209" t="s" s="2">
         <v>43</v>
       </c>
@@ -26641,7 +26636,7 @@
         <v>43</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AF209" t="s" s="2">
         <v>41</v>
@@ -26670,7 +26665,7 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s" s="2">
@@ -26693,17 +26688,17 @@
         <v>43</v>
       </c>
       <c r="J210" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="K210" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="K210" t="s" s="2">
+      <c r="L210" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="L210" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="M210" s="2"/>
       <c r="N210" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>43</v>
@@ -26752,7 +26747,7 @@
         <v>43</v>
       </c>
       <c r="AE210" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AF210" t="s" s="2">
         <v>41</v>
@@ -26781,7 +26776,7 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s" s="2">
@@ -26804,17 +26799,17 @@
         <v>43</v>
       </c>
       <c r="J211" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="K211" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="K211" t="s" s="2">
+      <c r="L211" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="L211" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="M211" s="2"/>
       <c r="N211" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O211" t="s" s="2">
         <v>43</v>
@@ -26863,7 +26858,7 @@
         <v>43</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AF211" t="s" s="2">
         <v>41</v>
@@ -26892,7 +26887,7 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s" s="2">
@@ -26915,19 +26910,19 @@
         <v>43</v>
       </c>
       <c r="J212" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="K212" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="K212" t="s" s="2">
+      <c r="L212" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L212" t="s" s="2">
+      <c r="M212" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="M212" t="s" s="2">
+      <c r="N212" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="N212" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="O212" t="s" s="2">
         <v>43</v>
@@ -26976,7 +26971,7 @@
         <v>43</v>
       </c>
       <c r="AE212" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AF212" t="s" s="2">
         <v>41</v>
@@ -27005,7 +27000,7 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s" s="2">
@@ -27028,19 +27023,19 @@
         <v>43</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L213" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="M213" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="M213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O213" t="s" s="2">
         <v>43</v>
@@ -27089,7 +27084,7 @@
         <v>43</v>
       </c>
       <c r="AE213" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="AF213" t="s" s="2">
         <v>41</v>
@@ -27118,7 +27113,7 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s" s="2">
@@ -27144,14 +27139,14 @@
         <v>418</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M214" s="2"/>
       <c r="N214" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>43</v>
@@ -27200,7 +27195,7 @@
         <v>43</v>
       </c>
       <c r="AE214" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="AF214" t="s" s="2">
         <v>41</v>
@@ -27229,7 +27224,7 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s" s="2">
@@ -27255,10 +27250,10 @@
         <v>43</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M215" s="2"/>
       <c r="N215" s="2"/>
@@ -27309,7 +27304,7 @@
         <v>43</v>
       </c>
       <c r="AE215" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="AF215" t="s" s="2">
         <v>41</v>
@@ -27338,7 +27333,7 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s" s="2">
@@ -27364,10 +27359,10 @@
         <v>310</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M216" s="2"/>
       <c r="N216" s="2"/>
@@ -27418,7 +27413,7 @@
         <v>43</v>
       </c>
       <c r="AE216" t="s" s="2">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="AF216" t="s" s="2">
         <v>41</v>
@@ -27447,7 +27442,7 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s" s="2">
@@ -27556,7 +27551,7 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s" s="2">
@@ -27667,7 +27662,7 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s" s="2">
@@ -27780,11 +27775,11 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27806,16 +27801,16 @@
         <v>178</v>
       </c>
       <c r="K220" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L220" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="L220" t="s" s="2">
+      <c r="M220" t="s" s="2">
         <v>654</v>
       </c>
-      <c r="M220" t="s" s="2">
+      <c r="N220" t="s" s="2">
         <v>655</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>43</v>
@@ -27843,11 +27838,11 @@
         <v>116</v>
       </c>
       <c r="X220" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="Y220" t="s" s="2">
         <v>657</v>
       </c>
-      <c r="Y220" t="s" s="2">
-        <v>658</v>
-      </c>
       <c r="Z220" t="s" s="2">
         <v>43</v>
       </c>
@@ -27864,7 +27859,7 @@
         <v>43</v>
       </c>
       <c r="AE220" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AF220" t="s" s="2">
         <v>50</v>
@@ -27893,7 +27888,7 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s" s="2">
@@ -27919,16 +27914,16 @@
         <v>178</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L221" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M221" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="M221" t="s" s="2">
+      <c r="N221" t="s" s="2">
         <v>662</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>663</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>43</v>
@@ -27956,11 +27951,11 @@
         <v>116</v>
       </c>
       <c r="X221" t="s" s="2">
+        <v>663</v>
+      </c>
+      <c r="Y221" t="s" s="2">
         <v>664</v>
       </c>
-      <c r="Y221" t="s" s="2">
-        <v>665</v>
-      </c>
       <c r="Z221" t="s" s="2">
         <v>43</v>
       </c>
@@ -27977,7 +27972,7 @@
         <v>43</v>
       </c>
       <c r="AE221" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AF221" t="s" s="2">
         <v>41</v>
@@ -28006,7 +28001,7 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s" s="2">
@@ -28029,17 +28024,17 @@
         <v>43</v>
       </c>
       <c r="J222" t="s" s="2">
+        <v>684</v>
+      </c>
+      <c r="K222" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="K222" t="s" s="2">
+      <c r="L222" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="L222" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="M222" s="2"/>
       <c r="N222" t="s" s="2">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>43</v>
@@ -28088,7 +28083,7 @@
         <v>43</v>
       </c>
       <c r="AE222" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AF222" t="s" s="2">
         <v>41</v>
@@ -28117,7 +28112,7 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s" s="2">
@@ -28140,17 +28135,17 @@
         <v>43</v>
       </c>
       <c r="J223" t="s" s="2">
+        <v>689</v>
+      </c>
+      <c r="K223" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="K223" t="s" s="2">
+      <c r="L223" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="L223" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="M223" s="2"/>
       <c r="N223" t="s" s="2">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>43</v>
@@ -28199,7 +28194,7 @@
         <v>43</v>
       </c>
       <c r="AE223" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AF223" t="s" s="2">
         <v>41</v>
@@ -28228,7 +28223,7 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s" s="2">
@@ -28251,19 +28246,19 @@
         <v>43</v>
       </c>
       <c r="J224" t="s" s="2">
+        <v>694</v>
+      </c>
+      <c r="K224" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="K224" t="s" s="2">
+      <c r="L224" t="s" s="2">
         <v>696</v>
       </c>
-      <c r="L224" t="s" s="2">
+      <c r="M224" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="M224" t="s" s="2">
+      <c r="N224" t="s" s="2">
         <v>698</v>
-      </c>
-      <c r="N224" t="s" s="2">
-        <v>699</v>
       </c>
       <c r="O224" t="s" s="2">
         <v>43</v>
@@ -28312,7 +28307,7 @@
         <v>43</v>
       </c>
       <c r="AE224" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AF224" t="s" s="2">
         <v>41</v>
@@ -28341,7 +28336,7 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s" s="2">
@@ -28364,19 +28359,19 @@
         <v>43</v>
       </c>
       <c r="J225" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K225" t="s" s="2">
+        <v>700</v>
+      </c>
+      <c r="L225" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="L225" t="s" s="2">
+      <c r="M225" t="s" s="2">
         <v>702</v>
       </c>
-      <c r="M225" t="s" s="2">
+      <c r="N225" t="s" s="2">
         <v>703</v>
-      </c>
-      <c r="N225" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="O225" t="s" s="2">
         <v>43</v>
@@ -28425,7 +28420,7 @@
         <v>43</v>
       </c>
       <c r="AE225" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AF225" t="s" s="2">
         <v>41</v>
@@ -28454,7 +28449,7 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s" s="2">
@@ -28480,14 +28475,14 @@
         <v>418</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M226" s="2"/>
       <c r="N226" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O226" t="s" s="2">
         <v>43</v>
@@ -28536,7 +28531,7 @@
         <v>43</v>
       </c>
       <c r="AE226" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AF226" t="s" s="2">
         <v>41</v>
@@ -28565,7 +28560,7 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s" s="2">
@@ -28591,10 +28586,10 @@
         <v>43</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M227" s="2"/>
       <c r="N227" s="2"/>
@@ -28645,7 +28640,7 @@
         <v>43</v>
       </c>
       <c r="AE227" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AF227" t="s" s="2">
         <v>41</v>
@@ -28674,7 +28669,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s" s="2">
@@ -28700,14 +28695,14 @@
         <v>43</v>
       </c>
       <c r="K228" t="s" s="2">
+        <v>868</v>
+      </c>
+      <c r="L228" t="s" s="2">
         <v>869</v>
-      </c>
-      <c r="L228" t="s" s="2">
-        <v>870</v>
       </c>
       <c r="M228" s="2"/>
       <c r="N228" t="s" s="2">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="O228" t="s" s="2">
         <v>43</v>
@@ -28756,7 +28751,7 @@
         <v>43</v>
       </c>
       <c r="AE228" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AF228" t="s" s="2">
         <v>41</v>
@@ -28785,7 +28780,7 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s" s="2">
@@ -28811,16 +28806,16 @@
         <v>310</v>
       </c>
       <c r="K229" t="s" s="2">
+        <v>872</v>
+      </c>
+      <c r="L229" t="s" s="2">
         <v>873</v>
       </c>
-      <c r="L229" t="s" s="2">
+      <c r="M229" t="s" s="2">
         <v>874</v>
       </c>
-      <c r="M229" t="s" s="2">
+      <c r="N229" t="s" s="2">
         <v>875</v>
-      </c>
-      <c r="N229" t="s" s="2">
-        <v>876</v>
       </c>
       <c r="O229" t="s" s="2">
         <v>43</v>
@@ -28869,7 +28864,7 @@
         <v>43</v>
       </c>
       <c r="AE229" t="s" s="2">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AF229" t="s" s="2">
         <v>41</v>
@@ -28898,7 +28893,7 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" t="s" s="2">
@@ -29007,7 +29002,7 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" t="s" s="2">
@@ -29118,7 +29113,7 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s" s="2">
@@ -29231,7 +29226,7 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s" s="2">
@@ -29257,16 +29252,16 @@
         <v>178</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="M233" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="N233" t="s" s="2">
         <v>881</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="N233" t="s" s="2">
-        <v>882</v>
       </c>
       <c r="O233" t="s" s="2">
         <v>43</v>
@@ -29294,11 +29289,11 @@
         <v>116</v>
       </c>
       <c r="X233" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="Y233" t="s" s="2">
         <v>739</v>
       </c>
-      <c r="Y233" t="s" s="2">
-        <v>740</v>
-      </c>
       <c r="Z233" t="s" s="2">
         <v>43</v>
       </c>
@@ -29315,7 +29310,7 @@
         <v>43</v>
       </c>
       <c r="AE233" t="s" s="2">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AF233" t="s" s="2">
         <v>50</v>
@@ -29344,7 +29339,7 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s" s="2">
@@ -29367,17 +29362,17 @@
         <v>51</v>
       </c>
       <c r="J234" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K234" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="L234" t="s" s="2">
         <v>884</v>
-      </c>
-      <c r="L234" t="s" s="2">
-        <v>885</v>
       </c>
       <c r="M234" s="2"/>
       <c r="N234" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="O234" t="s" s="2">
         <v>43</v>
@@ -29426,7 +29421,7 @@
         <v>43</v>
       </c>
       <c r="AE234" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AF234" t="s" s="2">
         <v>50</v>
@@ -29455,7 +29450,7 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s" s="2">
@@ -29481,14 +29476,14 @@
         <v>310</v>
       </c>
       <c r="K235" t="s" s="2">
+        <v>887</v>
+      </c>
+      <c r="L235" t="s" s="2">
         <v>888</v>
-      </c>
-      <c r="L235" t="s" s="2">
-        <v>889</v>
       </c>
       <c r="M235" s="2"/>
       <c r="N235" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="O235" t="s" s="2">
         <v>43</v>
@@ -29537,7 +29532,7 @@
         <v>43</v>
       </c>
       <c r="AE235" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AF235" t="s" s="2">
         <v>41</v>
@@ -29566,7 +29561,7 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B236" s="2"/>
       <c r="C236" t="s" s="2">
@@ -29675,7 +29670,7 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B237" s="2"/>
       <c r="C237" t="s" s="2">
@@ -29786,7 +29781,7 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s" s="2">
@@ -29899,7 +29894,7 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s" s="2">
@@ -29925,14 +29920,14 @@
         <v>178</v>
       </c>
       <c r="K239" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="L239" t="s" s="2">
         <v>895</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>896</v>
       </c>
       <c r="M239" s="2"/>
       <c r="N239" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>43</v>
@@ -29961,7 +29956,7 @@
       </c>
       <c r="X239" s="2"/>
       <c r="Y239" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="Z239" t="s" s="2">
         <v>43</v>
@@ -29979,7 +29974,7 @@
         <v>43</v>
       </c>
       <c r="AE239" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AF239" t="s" s="2">
         <v>41</v>
@@ -30008,7 +30003,7 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s" s="2">
@@ -30031,19 +30026,19 @@
         <v>43</v>
       </c>
       <c r="J240" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K240" t="s" s="2">
+        <v>899</v>
+      </c>
+      <c r="L240" t="s" s="2">
         <v>900</v>
       </c>
-      <c r="L240" t="s" s="2">
+      <c r="M240" t="s" s="2">
         <v>901</v>
       </c>
-      <c r="M240" t="s" s="2">
+      <c r="N240" t="s" s="2">
         <v>902</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>903</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>43</v>
@@ -30092,7 +30087,7 @@
         <v>43</v>
       </c>
       <c r="AE240" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AF240" t="s" s="2">
         <v>41</v>
@@ -30121,7 +30116,7 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s" s="2">
@@ -30147,14 +30142,14 @@
         <v>178</v>
       </c>
       <c r="K241" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="L241" t="s" s="2">
         <v>905</v>
-      </c>
-      <c r="L241" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="M241" s="2"/>
       <c r="N241" t="s" s="2">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O241" t="s" s="2">
         <v>43</v>
@@ -30182,11 +30177,11 @@
         <v>116</v>
       </c>
       <c r="X241" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="Y241" t="s" s="2">
         <v>908</v>
       </c>
-      <c r="Y241" t="s" s="2">
-        <v>909</v>
-      </c>
       <c r="Z241" t="s" s="2">
         <v>43</v>
       </c>
@@ -30203,7 +30198,7 @@
         <v>43</v>
       </c>
       <c r="AE241" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AF241" t="s" s="2">
         <v>41</v>
@@ -30232,7 +30227,7 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s" s="2">
@@ -30255,17 +30250,17 @@
         <v>43</v>
       </c>
       <c r="J242" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K242" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="L242" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="L242" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="M242" s="2"/>
       <c r="N242" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="O242" t="s" s="2">
         <v>43</v>
@@ -30314,7 +30309,7 @@
         <v>43</v>
       </c>
       <c r="AE242" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AF242" t="s" s="2">
         <v>41</v>
@@ -30343,7 +30338,7 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B243" s="2"/>
       <c r="C243" t="s" s="2">
@@ -30366,17 +30361,17 @@
         <v>43</v>
       </c>
       <c r="J243" t="s" s="2">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K243" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="L243" t="s" s="2">
         <v>915</v>
-      </c>
-      <c r="L243" t="s" s="2">
-        <v>916</v>
       </c>
       <c r="M243" s="2"/>
       <c r="N243" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="O243" t="s" s="2">
         <v>43</v>
@@ -30425,7 +30420,7 @@
         <v>43</v>
       </c>
       <c r="AE243" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AF243" t="s" s="2">
         <v>41</v>
@@ -30454,7 +30449,7 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B244" s="2"/>
       <c r="C244" t="s" s="2">
@@ -30480,16 +30475,16 @@
         <v>159</v>
       </c>
       <c r="K244" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="L244" t="s" s="2">
         <v>919</v>
       </c>
-      <c r="L244" t="s" s="2">
+      <c r="M244" t="s" s="2">
         <v>920</v>
       </c>
-      <c r="M244" t="s" s="2">
+      <c r="N244" t="s" s="2">
         <v>921</v>
-      </c>
-      <c r="N244" t="s" s="2">
-        <v>922</v>
       </c>
       <c r="O244" t="s" s="2">
         <v>43</v>
@@ -30538,7 +30533,7 @@
         <v>43</v>
       </c>
       <c r="AE244" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AF244" t="s" s="2">
         <v>41</v>
@@ -30567,7 +30562,7 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s" s="2">
@@ -30593,16 +30588,16 @@
         <v>178</v>
       </c>
       <c r="K245" t="s" s="2">
+        <v>923</v>
+      </c>
+      <c r="L245" t="s" s="2">
         <v>924</v>
       </c>
-      <c r="L245" t="s" s="2">
+      <c r="M245" t="s" s="2">
         <v>925</v>
       </c>
-      <c r="M245" t="s" s="2">
+      <c r="N245" t="s" s="2">
         <v>926</v>
-      </c>
-      <c r="N245" t="s" s="2">
-        <v>927</v>
       </c>
       <c r="O245" t="s" s="2">
         <v>43</v>
@@ -30630,11 +30625,11 @@
         <v>116</v>
       </c>
       <c r="X245" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="Y245" t="s" s="2">
         <v>928</v>
       </c>
-      <c r="Y245" t="s" s="2">
-        <v>929</v>
-      </c>
       <c r="Z245" t="s" s="2">
         <v>43</v>
       </c>
@@ -30651,7 +30646,7 @@
         <v>43</v>
       </c>
       <c r="AE245" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AF245" t="s" s="2">
         <v>41</v>
@@ -30680,7 +30675,7 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s" s="2">
@@ -30703,19 +30698,19 @@
         <v>43</v>
       </c>
       <c r="J246" t="s" s="2">
+        <v>930</v>
+      </c>
+      <c r="K246" t="s" s="2">
         <v>931</v>
       </c>
-      <c r="K246" t="s" s="2">
+      <c r="L246" t="s" s="2">
         <v>932</v>
       </c>
-      <c r="L246" t="s" s="2">
+      <c r="M246" t="s" s="2">
         <v>933</v>
       </c>
-      <c r="M246" t="s" s="2">
+      <c r="N246" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="N246" t="s" s="2">
-        <v>935</v>
       </c>
       <c r="O246" t="s" s="2">
         <v>43</v>
@@ -30764,7 +30759,7 @@
         <v>43</v>
       </c>
       <c r="AE246" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AF246" t="s" s="2">
         <v>41</v>
@@ -30793,7 +30788,7 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s" s="2">
@@ -30819,14 +30814,14 @@
         <v>310</v>
       </c>
       <c r="K247" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="L247" t="s" s="2">
         <v>937</v>
-      </c>
-      <c r="L247" t="s" s="2">
-        <v>938</v>
       </c>
       <c r="M247" s="2"/>
       <c r="N247" t="s" s="2">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O247" t="s" s="2">
         <v>43</v>
@@ -30875,7 +30870,7 @@
         <v>43</v>
       </c>
       <c r="AE247" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AF247" t="s" s="2">
         <v>41</v>
@@ -30904,7 +30899,7 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s" s="2">
@@ -31013,7 +31008,7 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s" s="2">
@@ -31124,7 +31119,7 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s" s="2">
@@ -31237,7 +31232,7 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s" s="2">
@@ -31263,14 +31258,14 @@
         <v>418</v>
       </c>
       <c r="K251" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="L251" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="L251" t="s" s="2">
-        <v>945</v>
       </c>
       <c r="M251" s="2"/>
       <c r="N251" t="s" s="2">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="O251" t="s" s="2">
         <v>43</v>
@@ -31319,7 +31314,7 @@
         <v>43</v>
       </c>
       <c r="AE251" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AF251" t="s" s="2">
         <v>41</v>
@@ -31348,7 +31343,7 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s" s="2">
@@ -31374,14 +31369,14 @@
         <v>126</v>
       </c>
       <c r="K252" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="L252" t="s" s="2">
         <v>948</v>
-      </c>
-      <c r="L252" t="s" s="2">
-        <v>949</v>
       </c>
       <c r="M252" s="2"/>
       <c r="N252" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="O252" t="s" s="2">
         <v>43</v>
@@ -31409,11 +31404,11 @@
         <v>172</v>
       </c>
       <c r="X252" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="Y252" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="Y252" t="s" s="2">
-        <v>952</v>
-      </c>
       <c r="Z252" t="s" s="2">
         <v>43</v>
       </c>
@@ -31430,7 +31425,7 @@
         <v>43</v>
       </c>
       <c r="AE252" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AF252" t="s" s="2">
         <v>41</v>
@@ -31459,7 +31454,7 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s" s="2">
@@ -31485,14 +31480,14 @@
         <v>52</v>
       </c>
       <c r="K253" t="s" s="2">
+        <v>953</v>
+      </c>
+      <c r="L253" t="s" s="2">
         <v>954</v>
-      </c>
-      <c r="L253" t="s" s="2">
-        <v>955</v>
       </c>
       <c r="M253" s="2"/>
       <c r="N253" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="O253" t="s" s="2">
         <v>43</v>
@@ -31541,7 +31536,7 @@
         <v>43</v>
       </c>
       <c r="AE253" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AF253" t="s" s="2">
         <v>41</v>
@@ -31570,7 +31565,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" t="s" s="2">
@@ -31596,16 +31591,16 @@
         <v>178</v>
       </c>
       <c r="K254" t="s" s="2">
+        <v>957</v>
+      </c>
+      <c r="L254" t="s" s="2">
         <v>958</v>
       </c>
-      <c r="L254" t="s" s="2">
+      <c r="M254" t="s" s="2">
         <v>959</v>
       </c>
-      <c r="M254" t="s" s="2">
+      <c r="N254" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="N254" t="s" s="2">
-        <v>961</v>
       </c>
       <c r="O254" t="s" s="2">
         <v>43</v>
@@ -31654,7 +31649,7 @@
         <v>43</v>
       </c>
       <c r="AE254" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AF254" t="s" s="2">
         <v>41</v>
@@ -31683,7 +31678,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B255" s="2"/>
       <c r="C255" t="s" s="2">
@@ -31709,16 +31704,16 @@
         <v>205</v>
       </c>
       <c r="K255" t="s" s="2">
+        <v>962</v>
+      </c>
+      <c r="L255" t="s" s="2">
         <v>963</v>
       </c>
-      <c r="L255" t="s" s="2">
+      <c r="M255" t="s" s="2">
         <v>964</v>
       </c>
-      <c r="M255" t="s" s="2">
+      <c r="N255" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>966</v>
       </c>
       <c r="O255" t="s" s="2">
         <v>43</v>
@@ -31767,7 +31762,7 @@
         <v>43</v>
       </c>
       <c r="AE255" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AF255" t="s" s="2">
         <v>41</v>
@@ -31796,7 +31791,7 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s" s="2">
@@ -31822,10 +31817,10 @@
         <v>310</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="L256" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="L256" t="s" s="2">
-        <v>969</v>
       </c>
       <c r="M256" s="2"/>
       <c r="N256" s="2"/>
@@ -31876,7 +31871,7 @@
         <v>43</v>
       </c>
       <c r="AE256" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AF256" t="s" s="2">
         <v>41</v>
@@ -31905,7 +31900,7 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s" s="2">
@@ -32014,7 +32009,7 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s" s="2">
@@ -32125,7 +32120,7 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s" s="2">
@@ -32238,7 +32233,7 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s" s="2">
@@ -32264,16 +32259,16 @@
         <v>178</v>
       </c>
       <c r="K260" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="L260" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="L260" t="s" s="2">
+      <c r="M260" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="M260" t="s" s="2">
-        <v>647</v>
-      </c>
       <c r="N260" t="s" s="2">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O260" t="s" s="2">
         <v>43</v>
@@ -32301,11 +32296,11 @@
         <v>116</v>
       </c>
       <c r="X260" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="Y260" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="Y260" t="s" s="2">
-        <v>650</v>
-      </c>
       <c r="Z260" t="s" s="2">
         <v>43</v>
       </c>
@@ -32322,7 +32317,7 @@
         <v>43</v>
       </c>
       <c r="AE260" t="s" s="2">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AF260" t="s" s="2">
         <v>50</v>
@@ -32351,7 +32346,7 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s" s="2">
@@ -32377,14 +32372,14 @@
         <v>428</v>
       </c>
       <c r="K261" t="s" s="2">
+        <v>975</v>
+      </c>
+      <c r="L261" t="s" s="2">
         <v>976</v>
-      </c>
-      <c r="L261" t="s" s="2">
-        <v>977</v>
       </c>
       <c r="M261" s="2"/>
       <c r="N261" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="O261" t="s" s="2">
         <v>43</v>
@@ -32433,7 +32428,7 @@
         <v>43</v>
       </c>
       <c r="AE261" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AF261" t="s" s="2">
         <v>41</v>
@@ -32462,7 +32457,7 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s" s="2">
@@ -32488,16 +32483,16 @@
         <v>52</v>
       </c>
       <c r="K262" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="L262" t="s" s="2">
         <v>980</v>
       </c>
-      <c r="L262" t="s" s="2">
+      <c r="M262" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="M262" t="s" s="2">
+      <c r="N262" t="s" s="2">
         <v>982</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>983</v>
       </c>
       <c r="O262" t="s" s="2">
         <v>43</v>
@@ -32546,7 +32541,7 @@
         <v>43</v>
       </c>
       <c r="AE262" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AF262" t="s" s="2">
         <v>41</v>
@@ -32575,7 +32570,7 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s" s="2">
@@ -32601,16 +32596,16 @@
         <v>52</v>
       </c>
       <c r="K263" t="s" s="2">
+        <v>984</v>
+      </c>
+      <c r="L263" t="s" s="2">
         <v>985</v>
       </c>
-      <c r="L263" t="s" s="2">
+      <c r="M263" t="s" s="2">
         <v>986</v>
       </c>
-      <c r="M263" t="s" s="2">
+      <c r="N263" t="s" s="2">
         <v>987</v>
-      </c>
-      <c r="N263" t="s" s="2">
-        <v>988</v>
       </c>
       <c r="O263" t="s" s="2">
         <v>43</v>
@@ -32659,7 +32654,7 @@
         <v>43</v>
       </c>
       <c r="AE263" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AF263" t="s" s="2">
         <v>41</v>
@@ -32688,7 +32683,7 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s" s="2">
@@ -32714,14 +32709,14 @@
         <v>178</v>
       </c>
       <c r="K264" t="s" s="2">
+        <v>989</v>
+      </c>
+      <c r="L264" t="s" s="2">
         <v>990</v>
-      </c>
-      <c r="L264" t="s" s="2">
-        <v>991</v>
       </c>
       <c r="M264" s="2"/>
       <c r="N264" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O264" t="s" s="2">
         <v>43</v>
@@ -32749,11 +32744,11 @@
         <v>116</v>
       </c>
       <c r="X264" t="s" s="2">
+        <v>992</v>
+      </c>
+      <c r="Y264" t="s" s="2">
         <v>993</v>
       </c>
-      <c r="Y264" t="s" s="2">
-        <v>994</v>
-      </c>
       <c r="Z264" t="s" s="2">
         <v>43</v>
       </c>
@@ -32770,7 +32765,7 @@
         <v>43</v>
       </c>
       <c r="AE264" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AF264" t="s" s="2">
         <v>41</v>
@@ -32799,7 +32794,7 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s" s="2">
@@ -32825,14 +32820,14 @@
         <v>178</v>
       </c>
       <c r="K265" t="s" s="2">
+        <v>995</v>
+      </c>
+      <c r="L265" t="s" s="2">
         <v>996</v>
-      </c>
-      <c r="L265" t="s" s="2">
-        <v>997</v>
       </c>
       <c r="M265" s="2"/>
       <c r="N265" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O265" t="s" s="2">
         <v>43</v>
@@ -32860,11 +32855,11 @@
         <v>116</v>
       </c>
       <c r="X265" t="s" s="2">
+        <v>998</v>
+      </c>
+      <c r="Y265" t="s" s="2">
         <v>999</v>
       </c>
-      <c r="Y265" t="s" s="2">
-        <v>1000</v>
-      </c>
       <c r="Z265" t="s" s="2">
         <v>43</v>
       </c>
@@ -32881,7 +32876,7 @@
         <v>43</v>
       </c>
       <c r="AE265" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AF265" t="s" s="2">
         <v>41</v>
@@ -32910,7 +32905,7 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" t="s" s="2">
@@ -32936,14 +32931,14 @@
         <v>178</v>
       </c>
       <c r="K266" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="L266" t="s" s="2">
         <v>1002</v>
-      </c>
-      <c r="L266" t="s" s="2">
-        <v>1003</v>
       </c>
       <c r="M266" s="2"/>
       <c r="N266" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O266" t="s" s="2">
         <v>43</v>
@@ -32971,11 +32966,11 @@
         <v>116</v>
       </c>
       <c r="X266" t="s" s="2">
+        <v>1003</v>
+      </c>
+      <c r="Y266" t="s" s="2">
         <v>1004</v>
       </c>
-      <c r="Y266" t="s" s="2">
-        <v>1005</v>
-      </c>
       <c r="Z266" t="s" s="2">
         <v>43</v>
       </c>
@@ -32992,7 +32987,7 @@
         <v>43</v>
       </c>
       <c r="AE266" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AF266" t="s" s="2">
         <v>41</v>
@@ -33021,7 +33016,7 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" t="s" s="2">
@@ -33047,10 +33042,10 @@
         <v>310</v>
       </c>
       <c r="K267" t="s" s="2">
+        <v>1006</v>
+      </c>
+      <c r="L267" t="s" s="2">
         <v>1007</v>
-      </c>
-      <c r="L267" t="s" s="2">
-        <v>1008</v>
       </c>
       <c r="M267" s="2"/>
       <c r="N267" s="2"/>
@@ -33101,7 +33096,7 @@
         <v>43</v>
       </c>
       <c r="AE267" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AF267" t="s" s="2">
         <v>41</v>
@@ -33130,7 +33125,7 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" t="s" s="2">
@@ -33239,7 +33234,7 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" t="s" s="2">
@@ -33350,7 +33345,7 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" t="s" s="2">
@@ -33463,7 +33458,7 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s" s="2">
@@ -33489,16 +33484,16 @@
         <v>178</v>
       </c>
       <c r="K271" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L271" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="M271" t="s" s="2">
         <v>1013</v>
       </c>
-      <c r="M271" t="s" s="2">
+      <c r="N271" t="s" s="2">
         <v>1014</v>
-      </c>
-      <c r="N271" t="s" s="2">
-        <v>1015</v>
       </c>
       <c r="O271" t="s" s="2">
         <v>43</v>
@@ -33526,11 +33521,11 @@
         <v>116</v>
       </c>
       <c r="X271" t="s" s="2">
+        <v>1015</v>
+      </c>
+      <c r="Y271" t="s" s="2">
         <v>1016</v>
       </c>
-      <c r="Y271" t="s" s="2">
-        <v>1017</v>
-      </c>
       <c r="Z271" t="s" s="2">
         <v>43</v>
       </c>
@@ -33547,7 +33542,7 @@
         <v>43</v>
       </c>
       <c r="AE271" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AF271" t="s" s="2">
         <v>50</v>
@@ -33576,7 +33571,7 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s" s="2">
@@ -33599,17 +33594,17 @@
         <v>43</v>
       </c>
       <c r="J272" t="s" s="2">
+        <v>1018</v>
+      </c>
+      <c r="K272" t="s" s="2">
         <v>1019</v>
       </c>
-      <c r="K272" t="s" s="2">
+      <c r="L272" t="s" s="2">
         <v>1020</v>
-      </c>
-      <c r="L272" t="s" s="2">
-        <v>1021</v>
       </c>
       <c r="M272" s="2"/>
       <c r="N272" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O272" t="s" s="2">
         <v>43</v>
@@ -33658,7 +33653,7 @@
         <v>43</v>
       </c>
       <c r="AE272" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AF272" t="s" s="2">
         <v>41</v>
@@ -33687,7 +33682,7 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s" s="2">
@@ -33710,17 +33705,17 @@
         <v>43</v>
       </c>
       <c r="J273" t="s" s="2">
+        <v>1023</v>
+      </c>
+      <c r="K273" t="s" s="2">
         <v>1024</v>
       </c>
-      <c r="K273" t="s" s="2">
+      <c r="L273" t="s" s="2">
         <v>1025</v>
-      </c>
-      <c r="L273" t="s" s="2">
-        <v>1026</v>
       </c>
       <c r="M273" s="2"/>
       <c r="N273" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O273" t="s" s="2">
         <v>43</v>
@@ -33769,7 +33764,7 @@
         <v>43</v>
       </c>
       <c r="AE273" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AF273" t="s" s="2">
         <v>41</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit.xlsx
@@ -8433,7 +8433,7 @@
         <v>43</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" t="s" s="2">
@@ -13507,7 +13507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
         <v>526</v>
       </c>
@@ -13523,7 +13523,7 @@
         <v>42</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>43</v>
@@ -14062,7 +14062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
         <v>537</v>
       </c>
@@ -14078,7 +14078,7 @@
         <v>42</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>43</v>
@@ -14173,7 +14173,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
         <v>541</v>
       </c>
@@ -14189,7 +14189,7 @@
         <v>50</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>43</v>

--- a/StructureDefinition-C4BB-ExplanationOfBenefit.xlsx
+++ b/StructureDefinition-C4BB-ExplanationOfBenefit.xlsx
@@ -11162,7 +11162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>433</v>
       </c>
@@ -11172,13 +11172,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>43</v>
@@ -12054,7 +12054,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>464</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>43</v>
@@ -12167,7 +12167,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
         <v>470</v>
       </c>
@@ -12183,7 +12183,7 @@
         <v>50</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>43</v>
@@ -12276,7 +12276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
         <v>474</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>50</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>43</v>
